--- a/backend/fms_core/static/submission_templates/Index_creation_v3_7_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Index_creation_v3_7_0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F8DD02-B07D-1F42-93E3-234A78C5CB59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9A5B1-FCB6-E048-9492-0E1CA2082A12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -317,6 +317,1092 @@
   </si>
   <si>
     <t xml:space="preserve">If you desire to input a pool of indices, you can do so by separating the indices by a comma (Index 3 Prime and Index 5 Prime columns). </t>
+  </si>
+  <si>
+    <t>smallTMPrnaRPI</t>
+  </si>
+  <si>
+    <t>IDTStubby</t>
+  </si>
+  <si>
+    <t>smallrnaRPI</t>
+  </si>
+  <si>
+    <t>UMITruSeqHT</t>
+  </si>
+  <si>
+    <t>tenX_sc_RNA_v1</t>
+  </si>
+  <si>
+    <t>tenX_sc_RNA_v2</t>
+  </si>
+  <si>
+    <t>tenX_DNA_v2</t>
+  </si>
+  <si>
+    <t>smartseq2</t>
+  </si>
+  <si>
+    <t>tenX_sc_ATAC_v1</t>
+  </si>
+  <si>
+    <t>FeatureBarcode</t>
+  </si>
+  <si>
+    <t>tenX_sc_RNA_visium_v2</t>
+  </si>
+  <si>
+    <t>mirna_qiagen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AATGATACGGCGACCACCGAGATCTACAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ACACTCTTTCCCTACACGACGCTCTTCCGATCT - [ UMI 3bp  ] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ insert ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - [ UMI 3bpr  ] - AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ Index 3 prime  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5 prime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- AATGATACGGCGACCACCGAGATCT -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ACACGTTCAGAGTTCTACAGTCCGA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- [ insert ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- TGGAATTCTCGGGTGCCAAGGAACTCCAGTCAC -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 3 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AATGATACGGCGACCACCGAGATCTACAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ACACTCTTTCCCTACACGACGCTCTTCCGATCT - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ insert ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ Index 3 prime  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ UMI  9bp ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AATGATACGGCGACCACCGAGATCT - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ACACTCTTTCCCTACACGACGCTCTTCCGATCT -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ cDNA insertrc ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - NBAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ UMIrc 10bp ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ 10X Barcoderc 14bp ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5 prime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- AATGATACGGCGACCACCGAGATCT -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ACACTCTTTCCCTACACGACGCTCTTCCGATCT - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ 10X Barcode 16bp  ] - [ UMI 10bp  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTVN - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ cDNA insert  ] -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 3 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5 prime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- AATGATACGGCGACCACCGAGATCT -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ Index 5 prime  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ACACTCTTTCCCTACACGACGCTCTTCCGATCT - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ 10X Barcode 16bp  ] - [ Nmer 6bp  ] - [ gDNA insert  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 3 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5 prime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- AATGATACGGCGACCACCGAGATCTACAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ Index 5 prime  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ cDNA  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- CTGTCTCTTATACACATCTCCGAGCCCACGAGAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ Index 3 prime  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- AATGATACGGCGACCACCGAGATCT -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ACACTCTTTCCCTACACGACGCTCTTCCGATCT -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ gDNA insert  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ Index 3 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AATGATACGGCGACCACCGAGATCT - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- TCGTCGGCAGCGTCAGATGTGTATAAGAGACAG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ 10X Barcode 16bp  ] - [ UMI 10bp   ] - [ Capture Seq1  ] - [ Feature BC 51 bp  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[ Index 3 prime  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AATGATACGGCGACCACCGAGATCTACAC -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ACACTCTTTCCCTACACGACGCTCTTCCGATCT - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ 10X Barcode 16bp  ] - [ UMI 10bp  ] - TTTTTTTTTTTTTTTTTTTTTTTTTTTTTTVN - [ cDNA insert  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ Index 3 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5 prime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- AATGATACGGCGACCACCGAGATCT - CCCCCCCCCC -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 5 prime  ] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- ACACTCTTTCCCTACACGACGCTCTTCCGATCT - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ insert  ] -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [ Index 3 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 prime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - AATGATACGGCGACCACCGAGATCT - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ Index 5 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ACACGTTCAGAGTTCTACAGTCCGA - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ insert ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - TGGAATTCTCGGGTGCCAAGG-AGATCGGAAGAGCACACGTCTGAACTCCAGTCAC -  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ Index 3 prime  ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - ATCTCGTATGCCGTCTTCTGCTTG - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3 prime</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -499,7 +1585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -543,6 +1629,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1676,2019 +2765,2019 @@
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="18"/>
       <c r="E105" s="18"/>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="18"/>
       <c r="E112" s="18"/>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="18"/>
       <c r="E115" s="18"/>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
     </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
+      <c r="C119" s="15"/>
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="18"/>
       <c r="E120" s="18"/>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18"/>
       <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="18"/>
       <c r="E121" s="18"/>
     </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
+      <c r="C122" s="15"/>
       <c r="D122" s="18"/>
       <c r="E122" s="18"/>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
+      <c r="C123" s="15"/>
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
     </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="18"/>
       <c r="E125" s="18"/>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
+      <c r="C126" s="15"/>
       <c r="D126" s="18"/>
       <c r="E126" s="18"/>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="18"/>
       <c r="E127" s="18"/>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="18"/>
       <c r="E128" s="18"/>
     </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
+      <c r="C129" s="15"/>
       <c r="D129" s="18"/>
       <c r="E129" s="18"/>
     </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
+      <c r="C130" s="15"/>
       <c r="D130" s="18"/>
       <c r="E130" s="18"/>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
+      <c r="C131" s="15"/>
       <c r="D131" s="18"/>
       <c r="E131" s="18"/>
     </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
+      <c r="C132" s="15"/>
       <c r="D132" s="18"/>
       <c r="E132" s="18"/>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
+      <c r="C133" s="15"/>
       <c r="D133" s="18"/>
       <c r="E133" s="18"/>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
+      <c r="C134" s="15"/>
       <c r="D134" s="18"/>
       <c r="E134" s="18"/>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
+      <c r="C135" s="15"/>
       <c r="D135" s="18"/>
       <c r="E135" s="18"/>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
+      <c r="C136" s="15"/>
       <c r="D136" s="18"/>
       <c r="E136" s="18"/>
     </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18"/>
       <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
+      <c r="C137" s="15"/>
       <c r="D137" s="18"/>
       <c r="E137" s="18"/>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
+      <c r="C138" s="15"/>
       <c r="D138" s="18"/>
       <c r="E138" s="18"/>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
+      <c r="C139" s="15"/>
       <c r="D139" s="18"/>
       <c r="E139" s="18"/>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
+      <c r="C140" s="15"/>
       <c r="D140" s="18"/>
       <c r="E140" s="18"/>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18"/>
       <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
+      <c r="C141" s="15"/>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
+      <c r="C142" s="15"/>
       <c r="D142" s="18"/>
       <c r="E142" s="18"/>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
+      <c r="C143" s="15"/>
       <c r="D143" s="18"/>
       <c r="E143" s="18"/>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
+      <c r="C144" s="15"/>
       <c r="D144" s="18"/>
       <c r="E144" s="18"/>
     </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
+      <c r="C145" s="15"/>
       <c r="D145" s="18"/>
       <c r="E145" s="18"/>
     </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
+      <c r="C146" s="15"/>
       <c r="D146" s="18"/>
       <c r="E146" s="18"/>
     </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18"/>
       <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
+      <c r="C147" s="15"/>
       <c r="D147" s="18"/>
       <c r="E147" s="18"/>
     </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
+      <c r="C148" s="15"/>
       <c r="D148" s="18"/>
       <c r="E148" s="18"/>
     </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18"/>
       <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
+      <c r="C149" s="15"/>
       <c r="D149" s="18"/>
       <c r="E149" s="18"/>
     </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18"/>
       <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
+      <c r="C150" s="15"/>
       <c r="D150" s="18"/>
       <c r="E150" s="18"/>
     </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
+      <c r="C151" s="15"/>
       <c r="D151" s="18"/>
       <c r="E151" s="18"/>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
+      <c r="C152" s="15"/>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
     </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
+      <c r="C153" s="15"/>
       <c r="D153" s="18"/>
       <c r="E153" s="18"/>
     </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
+      <c r="C154" s="15"/>
       <c r="D154" s="18"/>
       <c r="E154" s="18"/>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18"/>
       <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
+      <c r="C155" s="15"/>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
+      <c r="C156" s="15"/>
       <c r="D156" s="18"/>
       <c r="E156" s="18"/>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
+      <c r="C157" s="15"/>
       <c r="D157" s="18"/>
       <c r="E157" s="18"/>
     </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
+      <c r="C158" s="15"/>
       <c r="D158" s="18"/>
       <c r="E158" s="18"/>
     </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
+      <c r="C159" s="15"/>
       <c r="D159" s="18"/>
       <c r="E159" s="18"/>
     </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18"/>
       <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
+      <c r="C160" s="15"/>
       <c r="D160" s="18"/>
       <c r="E160" s="18"/>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
+      <c r="C161" s="15"/>
       <c r="D161" s="18"/>
       <c r="E161" s="18"/>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
+      <c r="C162" s="15"/>
       <c r="D162" s="18"/>
       <c r="E162" s="18"/>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
+      <c r="C163" s="15"/>
       <c r="D163" s="18"/>
       <c r="E163" s="18"/>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18"/>
       <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
+      <c r="C164" s="15"/>
       <c r="D164" s="18"/>
       <c r="E164" s="18"/>
     </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18"/>
       <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
+      <c r="C165" s="15"/>
       <c r="D165" s="18"/>
       <c r="E165" s="18"/>
     </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
+      <c r="C166" s="15"/>
       <c r="D166" s="18"/>
       <c r="E166" s="18"/>
     </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
-      <c r="C167" s="18"/>
+      <c r="C167" s="15"/>
       <c r="D167" s="18"/>
       <c r="E167" s="18"/>
     </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
+      <c r="C168" s="15"/>
       <c r="D168" s="18"/>
       <c r="E168" s="18"/>
     </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
+      <c r="C169" s="15"/>
       <c r="D169" s="18"/>
       <c r="E169" s="18"/>
     </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
+      <c r="C170" s="15"/>
       <c r="D170" s="18"/>
       <c r="E170" s="18"/>
     </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
+      <c r="C171" s="15"/>
       <c r="D171" s="18"/>
       <c r="E171" s="18"/>
     </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
+      <c r="C172" s="15"/>
       <c r="D172" s="18"/>
       <c r="E172" s="18"/>
     </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
+      <c r="C173" s="15"/>
       <c r="D173" s="18"/>
       <c r="E173" s="18"/>
     </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
+      <c r="C174" s="15"/>
       <c r="D174" s="18"/>
       <c r="E174" s="18"/>
     </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
+      <c r="C175" s="15"/>
       <c r="D175" s="18"/>
       <c r="E175" s="18"/>
     </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
+      <c r="C176" s="15"/>
       <c r="D176" s="18"/>
       <c r="E176" s="18"/>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
+      <c r="C177" s="15"/>
       <c r="D177" s="18"/>
       <c r="E177" s="18"/>
     </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
+      <c r="C178" s="15"/>
       <c r="D178" s="18"/>
       <c r="E178" s="18"/>
     </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
+      <c r="C179" s="15"/>
       <c r="D179" s="18"/>
       <c r="E179" s="18"/>
     </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
+      <c r="C180" s="15"/>
       <c r="D180" s="18"/>
       <c r="E180" s="18"/>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18"/>
       <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
+      <c r="C181" s="15"/>
       <c r="D181" s="18"/>
       <c r="E181" s="18"/>
     </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18"/>
       <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
+      <c r="C182" s="15"/>
       <c r="D182" s="18"/>
       <c r="E182" s="18"/>
     </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18"/>
       <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
+      <c r="C183" s="15"/>
       <c r="D183" s="18"/>
       <c r="E183" s="18"/>
     </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18"/>
       <c r="B184" s="18"/>
-      <c r="C184" s="18"/>
+      <c r="C184" s="15"/>
       <c r="D184" s="18"/>
       <c r="E184" s="18"/>
     </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
-      <c r="C185" s="18"/>
+      <c r="C185" s="15"/>
       <c r="D185" s="18"/>
       <c r="E185" s="18"/>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18"/>
       <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
+      <c r="C186" s="15"/>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
     </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18"/>
       <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
+      <c r="C187" s="15"/>
       <c r="D187" s="18"/>
       <c r="E187" s="18"/>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18"/>
       <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
+      <c r="C188" s="15"/>
       <c r="D188" s="18"/>
       <c r="E188" s="18"/>
     </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18"/>
       <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
+      <c r="C189" s="15"/>
       <c r="D189" s="18"/>
       <c r="E189" s="18"/>
     </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18"/>
       <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
+      <c r="C190" s="15"/>
       <c r="D190" s="18"/>
       <c r="E190" s="18"/>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18"/>
       <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
+      <c r="C191" s="15"/>
       <c r="D191" s="18"/>
       <c r="E191" s="18"/>
     </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18"/>
       <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
+      <c r="C192" s="15"/>
       <c r="D192" s="18"/>
       <c r="E192" s="18"/>
     </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18"/>
       <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
+      <c r="C193" s="15"/>
       <c r="D193" s="18"/>
       <c r="E193" s="18"/>
     </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
+      <c r="C194" s="15"/>
       <c r="D194" s="18"/>
       <c r="E194" s="18"/>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18"/>
       <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
+      <c r="C195" s="15"/>
       <c r="D195" s="18"/>
       <c r="E195" s="18"/>
     </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18"/>
       <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
+      <c r="C196" s="15"/>
       <c r="D196" s="18"/>
       <c r="E196" s="18"/>
     </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18"/>
       <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
+      <c r="C197" s="15"/>
       <c r="D197" s="18"/>
       <c r="E197" s="18"/>
     </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18"/>
       <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
+      <c r="C198" s="15"/>
       <c r="D198" s="18"/>
       <c r="E198" s="18"/>
     </row>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18"/>
       <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
+      <c r="C199" s="15"/>
       <c r="D199" s="18"/>
       <c r="E199" s="18"/>
     </row>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18"/>
       <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
+      <c r="C200" s="15"/>
       <c r="D200" s="18"/>
       <c r="E200" s="18"/>
     </row>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18"/>
       <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
+      <c r="C201" s="15"/>
       <c r="D201" s="18"/>
       <c r="E201" s="18"/>
     </row>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18"/>
       <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
+      <c r="C202" s="15"/>
       <c r="D202" s="18"/>
       <c r="E202" s="18"/>
     </row>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
+      <c r="C203" s="15"/>
       <c r="D203" s="18"/>
       <c r="E203" s="18"/>
     </row>
-    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18"/>
       <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
+      <c r="C204" s="15"/>
       <c r="D204" s="18"/>
       <c r="E204" s="18"/>
     </row>
-    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18"/>
       <c r="B205" s="18"/>
-      <c r="C205" s="18"/>
+      <c r="C205" s="15"/>
       <c r="D205" s="18"/>
       <c r="E205" s="18"/>
     </row>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18"/>
       <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
+      <c r="C206" s="15"/>
       <c r="D206" s="18"/>
       <c r="E206" s="18"/>
     </row>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
+      <c r="C207" s="15"/>
       <c r="D207" s="18"/>
       <c r="E207" s="18"/>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18"/>
       <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
+      <c r="C208" s="15"/>
       <c r="D208" s="18"/>
       <c r="E208" s="18"/>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18"/>
       <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
+      <c r="C209" s="15"/>
       <c r="D209" s="18"/>
       <c r="E209" s="18"/>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18"/>
       <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
+      <c r="C210" s="15"/>
       <c r="D210" s="18"/>
       <c r="E210" s="18"/>
     </row>
-    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18"/>
       <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
+      <c r="C211" s="15"/>
       <c r="D211" s="18"/>
       <c r="E211" s="18"/>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18"/>
       <c r="B212" s="18"/>
-      <c r="C212" s="18"/>
+      <c r="C212" s="15"/>
       <c r="D212" s="18"/>
       <c r="E212" s="18"/>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18"/>
       <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
+      <c r="C213" s="15"/>
       <c r="D213" s="18"/>
       <c r="E213" s="18"/>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18"/>
       <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
+      <c r="C214" s="15"/>
       <c r="D214" s="18"/>
       <c r="E214" s="18"/>
     </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18"/>
       <c r="B215" s="18"/>
-      <c r="C215" s="18"/>
+      <c r="C215" s="15"/>
       <c r="D215" s="18"/>
       <c r="E215" s="18"/>
     </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18"/>
       <c r="B216" s="18"/>
-      <c r="C216" s="18"/>
+      <c r="C216" s="15"/>
       <c r="D216" s="18"/>
       <c r="E216" s="18"/>
     </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18"/>
       <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
+      <c r="C217" s="15"/>
       <c r="D217" s="18"/>
       <c r="E217" s="18"/>
     </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18"/>
       <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
+      <c r="C218" s="15"/>
       <c r="D218" s="18"/>
       <c r="E218" s="18"/>
     </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
+      <c r="C219" s="15"/>
       <c r="D219" s="18"/>
       <c r="E219" s="18"/>
     </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18"/>
       <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
+      <c r="C220" s="15"/>
       <c r="D220" s="18"/>
       <c r="E220" s="18"/>
     </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18"/>
       <c r="B221" s="18"/>
-      <c r="C221" s="18"/>
+      <c r="C221" s="15"/>
       <c r="D221" s="18"/>
       <c r="E221" s="18"/>
     </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18"/>
       <c r="B222" s="18"/>
-      <c r="C222" s="18"/>
+      <c r="C222" s="15"/>
       <c r="D222" s="18"/>
       <c r="E222" s="18"/>
     </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18"/>
       <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
+      <c r="C223" s="15"/>
       <c r="D223" s="18"/>
       <c r="E223" s="18"/>
     </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18"/>
       <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
+      <c r="C224" s="15"/>
       <c r="D224" s="18"/>
       <c r="E224" s="18"/>
     </row>
-    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18"/>
       <c r="B225" s="18"/>
-      <c r="C225" s="18"/>
+      <c r="C225" s="15"/>
       <c r="D225" s="18"/>
       <c r="E225" s="18"/>
     </row>
-    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18"/>
       <c r="B226" s="18"/>
-      <c r="C226" s="18"/>
+      <c r="C226" s="15"/>
       <c r="D226" s="18"/>
       <c r="E226" s="18"/>
     </row>
-    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18"/>
       <c r="B227" s="18"/>
-      <c r="C227" s="18"/>
+      <c r="C227" s="15"/>
       <c r="D227" s="18"/>
       <c r="E227" s="18"/>
     </row>
-    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18"/>
       <c r="B228" s="18"/>
-      <c r="C228" s="18"/>
+      <c r="C228" s="15"/>
       <c r="D228" s="18"/>
       <c r="E228" s="18"/>
     </row>
-    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18"/>
       <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
+      <c r="C229" s="15"/>
       <c r="D229" s="18"/>
       <c r="E229" s="18"/>
     </row>
-    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
-      <c r="C230" s="18"/>
+      <c r="C230" s="15"/>
       <c r="D230" s="18"/>
       <c r="E230" s="18"/>
     </row>
-    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18"/>
       <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
+      <c r="C231" s="15"/>
       <c r="D231" s="18"/>
       <c r="E231" s="18"/>
     </row>
-    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18"/>
       <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
+      <c r="C232" s="15"/>
       <c r="D232" s="18"/>
       <c r="E232" s="18"/>
     </row>
-    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18"/>
       <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
+      <c r="C233" s="15"/>
       <c r="D233" s="18"/>
       <c r="E233" s="18"/>
     </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
+      <c r="C234" s="15"/>
       <c r="D234" s="18"/>
       <c r="E234" s="18"/>
     </row>
-    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18"/>
       <c r="B235" s="18"/>
-      <c r="C235" s="18"/>
+      <c r="C235" s="15"/>
       <c r="D235" s="18"/>
       <c r="E235" s="18"/>
     </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18"/>
       <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
+      <c r="C236" s="15"/>
       <c r="D236" s="18"/>
       <c r="E236" s="18"/>
     </row>
-    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
+      <c r="C237" s="15"/>
       <c r="D237" s="18"/>
       <c r="E237" s="18"/>
     </row>
-    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18"/>
       <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
+      <c r="C238" s="15"/>
       <c r="D238" s="18"/>
       <c r="E238" s="18"/>
     </row>
-    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18"/>
       <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
+      <c r="C239" s="15"/>
       <c r="D239" s="18"/>
       <c r="E239" s="18"/>
     </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18"/>
       <c r="B240" s="18"/>
-      <c r="C240" s="18"/>
+      <c r="C240" s="15"/>
       <c r="D240" s="18"/>
       <c r="E240" s="18"/>
     </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18"/>
       <c r="B241" s="18"/>
-      <c r="C241" s="18"/>
+      <c r="C241" s="15"/>
       <c r="D241" s="18"/>
       <c r="E241" s="18"/>
     </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18"/>
       <c r="B242" s="18"/>
-      <c r="C242" s="18"/>
+      <c r="C242" s="15"/>
       <c r="D242" s="18"/>
       <c r="E242" s="18"/>
     </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18"/>
       <c r="B243" s="18"/>
-      <c r="C243" s="18"/>
+      <c r="C243" s="15"/>
       <c r="D243" s="18"/>
       <c r="E243" s="18"/>
     </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18"/>
       <c r="B244" s="18"/>
-      <c r="C244" s="18"/>
+      <c r="C244" s="15"/>
       <c r="D244" s="18"/>
       <c r="E244" s="18"/>
     </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18"/>
       <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
+      <c r="C245" s="15"/>
       <c r="D245" s="18"/>
       <c r="E245" s="18"/>
     </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18"/>
       <c r="B246" s="18"/>
-      <c r="C246" s="18"/>
+      <c r="C246" s="15"/>
       <c r="D246" s="18"/>
       <c r="E246" s="18"/>
     </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18"/>
       <c r="B247" s="18"/>
-      <c r="C247" s="18"/>
+      <c r="C247" s="15"/>
       <c r="D247" s="18"/>
       <c r="E247" s="18"/>
     </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18"/>
       <c r="B248" s="18"/>
-      <c r="C248" s="18"/>
+      <c r="C248" s="15"/>
       <c r="D248" s="18"/>
       <c r="E248" s="18"/>
     </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18"/>
       <c r="B249" s="18"/>
-      <c r="C249" s="18"/>
+      <c r="C249" s="15"/>
       <c r="D249" s="18"/>
       <c r="E249" s="18"/>
     </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18"/>
       <c r="B250" s="18"/>
-      <c r="C250" s="18"/>
+      <c r="C250" s="15"/>
       <c r="D250" s="18"/>
       <c r="E250" s="18"/>
     </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18"/>
       <c r="B251" s="18"/>
-      <c r="C251" s="18"/>
+      <c r="C251" s="15"/>
       <c r="D251" s="18"/>
       <c r="E251" s="18"/>
     </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18"/>
       <c r="B252" s="18"/>
-      <c r="C252" s="18"/>
+      <c r="C252" s="15"/>
       <c r="D252" s="18"/>
       <c r="E252" s="18"/>
     </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
+      <c r="C253" s="15"/>
       <c r="D253" s="18"/>
       <c r="E253" s="18"/>
     </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18"/>
       <c r="B254" s="18"/>
-      <c r="C254" s="18"/>
+      <c r="C254" s="15"/>
       <c r="D254" s="18"/>
       <c r="E254" s="18"/>
     </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18"/>
       <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
+      <c r="C255" s="15"/>
       <c r="D255" s="18"/>
       <c r="E255" s="18"/>
     </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
-      <c r="C256" s="18"/>
+      <c r="C256" s="15"/>
       <c r="D256" s="18"/>
       <c r="E256" s="18"/>
     </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18"/>
       <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
+      <c r="C257" s="15"/>
       <c r="D257" s="18"/>
       <c r="E257" s="18"/>
     </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18"/>
       <c r="B258" s="18"/>
-      <c r="C258" s="18"/>
+      <c r="C258" s="15"/>
       <c r="D258" s="18"/>
       <c r="E258" s="18"/>
     </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18"/>
       <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
+      <c r="C259" s="15"/>
       <c r="D259" s="18"/>
       <c r="E259" s="18"/>
     </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18"/>
       <c r="B260" s="18"/>
-      <c r="C260" s="18"/>
+      <c r="C260" s="15"/>
       <c r="D260" s="18"/>
       <c r="E260" s="18"/>
     </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18"/>
       <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
+      <c r="C261" s="15"/>
       <c r="D261" s="18"/>
       <c r="E261" s="18"/>
     </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18"/>
       <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
+      <c r="C262" s="15"/>
       <c r="D262" s="18"/>
       <c r="E262" s="18"/>
     </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18"/>
       <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
+      <c r="C263" s="15"/>
       <c r="D263" s="18"/>
       <c r="E263" s="18"/>
     </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18"/>
       <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
+      <c r="C264" s="15"/>
       <c r="D264" s="18"/>
       <c r="E264" s="18"/>
     </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18"/>
       <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
+      <c r="C265" s="15"/>
       <c r="D265" s="18"/>
       <c r="E265" s="18"/>
     </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18"/>
       <c r="B266" s="18"/>
-      <c r="C266" s="18"/>
+      <c r="C266" s="15"/>
       <c r="D266" s="18"/>
       <c r="E266" s="18"/>
     </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18"/>
       <c r="B267" s="18"/>
-      <c r="C267" s="18"/>
+      <c r="C267" s="15"/>
       <c r="D267" s="18"/>
       <c r="E267" s="18"/>
     </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18"/>
       <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
+      <c r="C268" s="15"/>
       <c r="D268" s="18"/>
       <c r="E268" s="18"/>
     </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18"/>
       <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
+      <c r="C269" s="15"/>
       <c r="D269" s="18"/>
       <c r="E269" s="18"/>
     </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18"/>
       <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
+      <c r="C270" s="15"/>
       <c r="D270" s="18"/>
       <c r="E270" s="18"/>
     </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18"/>
       <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
+      <c r="C271" s="15"/>
       <c r="D271" s="18"/>
       <c r="E271" s="18"/>
     </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18"/>
       <c r="B272" s="18"/>
-      <c r="C272" s="18"/>
+      <c r="C272" s="15"/>
       <c r="D272" s="18"/>
       <c r="E272" s="18"/>
     </row>
-    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18"/>
       <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
+      <c r="C273" s="15"/>
       <c r="D273" s="18"/>
       <c r="E273" s="18"/>
     </row>
-    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18"/>
       <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
+      <c r="C274" s="15"/>
       <c r="D274" s="18"/>
       <c r="E274" s="18"/>
     </row>
-    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18"/>
       <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
+      <c r="C275" s="15"/>
       <c r="D275" s="18"/>
       <c r="E275" s="18"/>
     </row>
-    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18"/>
       <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
+      <c r="C276" s="15"/>
       <c r="D276" s="18"/>
       <c r="E276" s="18"/>
     </row>
-    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18"/>
       <c r="B277" s="18"/>
-      <c r="C277" s="18"/>
+      <c r="C277" s="15"/>
       <c r="D277" s="18"/>
       <c r="E277" s="18"/>
     </row>
-    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18"/>
       <c r="B278" s="18"/>
-      <c r="C278" s="18"/>
+      <c r="C278" s="15"/>
       <c r="D278" s="18"/>
       <c r="E278" s="18"/>
     </row>
-    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18"/>
       <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
+      <c r="C279" s="15"/>
       <c r="D279" s="18"/>
       <c r="E279" s="18"/>
     </row>
-    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18"/>
       <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
+      <c r="C280" s="15"/>
       <c r="D280" s="18"/>
       <c r="E280" s="18"/>
     </row>
-    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18"/>
       <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
+      <c r="C281" s="15"/>
       <c r="D281" s="18"/>
       <c r="E281" s="18"/>
     </row>
-    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18"/>
       <c r="B282" s="18"/>
-      <c r="C282" s="18"/>
+      <c r="C282" s="15"/>
       <c r="D282" s="18"/>
       <c r="E282" s="18"/>
     </row>
-    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18"/>
       <c r="B283" s="18"/>
-      <c r="C283" s="18"/>
+      <c r="C283" s="15"/>
       <c r="D283" s="18"/>
       <c r="E283" s="18"/>
     </row>
-    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18"/>
       <c r="B284" s="18"/>
-      <c r="C284" s="18"/>
+      <c r="C284" s="15"/>
       <c r="D284" s="18"/>
       <c r="E284" s="18"/>
     </row>
-    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18"/>
       <c r="B285" s="18"/>
-      <c r="C285" s="18"/>
+      <c r="C285" s="15"/>
       <c r="D285" s="18"/>
       <c r="E285" s="18"/>
     </row>
-    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18"/>
       <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
+      <c r="C286" s="15"/>
       <c r="D286" s="18"/>
       <c r="E286" s="18"/>
     </row>
-    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18"/>
       <c r="B287" s="18"/>
-      <c r="C287" s="18"/>
+      <c r="C287" s="15"/>
       <c r="D287" s="18"/>
       <c r="E287" s="18"/>
     </row>
-    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18"/>
       <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
+      <c r="C288" s="15"/>
       <c r="D288" s="18"/>
       <c r="E288" s="18"/>
     </row>
-    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18"/>
       <c r="B289" s="18"/>
-      <c r="C289" s="18"/>
+      <c r="C289" s="15"/>
       <c r="D289" s="18"/>
       <c r="E289" s="18"/>
     </row>
-    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18"/>
       <c r="B290" s="18"/>
-      <c r="C290" s="18"/>
+      <c r="C290" s="15"/>
       <c r="D290" s="18"/>
       <c r="E290" s="18"/>
     </row>
-    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
-      <c r="C291" s="18"/>
+      <c r="C291" s="15"/>
       <c r="D291" s="18"/>
       <c r="E291" s="18"/>
     </row>
-    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18"/>
       <c r="B292" s="18"/>
-      <c r="C292" s="18"/>
+      <c r="C292" s="15"/>
       <c r="D292" s="18"/>
       <c r="E292" s="18"/>
     </row>
-    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18"/>
       <c r="B293" s="18"/>
-      <c r="C293" s="18"/>
+      <c r="C293" s="15"/>
       <c r="D293" s="18"/>
       <c r="E293" s="18"/>
     </row>
-    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18"/>
       <c r="B294" s="18"/>
-      <c r="C294" s="18"/>
+      <c r="C294" s="15"/>
       <c r="D294" s="18"/>
       <c r="E294" s="18"/>
     </row>
-    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18"/>
       <c r="B295" s="18"/>
-      <c r="C295" s="18"/>
+      <c r="C295" s="15"/>
       <c r="D295" s="18"/>
       <c r="E295" s="18"/>
     </row>
-    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18"/>
       <c r="B296" s="18"/>
-      <c r="C296" s="18"/>
+      <c r="C296" s="15"/>
       <c r="D296" s="18"/>
       <c r="E296" s="18"/>
     </row>
-    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18"/>
       <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
+      <c r="C297" s="15"/>
       <c r="D297" s="18"/>
       <c r="E297" s="18"/>
     </row>
-    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18"/>
       <c r="B298" s="18"/>
-      <c r="C298" s="18"/>
+      <c r="C298" s="15"/>
       <c r="D298" s="18"/>
       <c r="E298" s="18"/>
     </row>
-    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18"/>
       <c r="B299" s="18"/>
-      <c r="C299" s="18"/>
+      <c r="C299" s="15"/>
       <c r="D299" s="18"/>
       <c r="E299" s="18"/>
     </row>
-    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18"/>
       <c r="B300" s="18"/>
-      <c r="C300" s="18"/>
+      <c r="C300" s="15"/>
       <c r="D300" s="18"/>
       <c r="E300" s="18"/>
     </row>
-    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18"/>
       <c r="B301" s="18"/>
-      <c r="C301" s="18"/>
+      <c r="C301" s="15"/>
       <c r="D301" s="18"/>
       <c r="E301" s="18"/>
     </row>
-    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18"/>
       <c r="B302" s="18"/>
-      <c r="C302" s="18"/>
+      <c r="C302" s="15"/>
       <c r="D302" s="18"/>
       <c r="E302" s="18"/>
     </row>
-    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18"/>
       <c r="B303" s="18"/>
-      <c r="C303" s="18"/>
+      <c r="C303" s="15"/>
       <c r="D303" s="18"/>
       <c r="E303" s="18"/>
     </row>
-    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18"/>
       <c r="B304" s="18"/>
-      <c r="C304" s="18"/>
+      <c r="C304" s="15"/>
       <c r="D304" s="18"/>
       <c r="E304" s="18"/>
     </row>
-    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18"/>
       <c r="B305" s="18"/>
-      <c r="C305" s="18"/>
+      <c r="C305" s="15"/>
       <c r="D305" s="18"/>
       <c r="E305" s="18"/>
     </row>
-    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18"/>
       <c r="B306" s="18"/>
-      <c r="C306" s="18"/>
+      <c r="C306" s="15"/>
       <c r="D306" s="18"/>
       <c r="E306" s="18"/>
     </row>
-    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18"/>
       <c r="B307" s="18"/>
-      <c r="C307" s="18"/>
+      <c r="C307" s="15"/>
       <c r="D307" s="18"/>
       <c r="E307" s="18"/>
     </row>
-    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18"/>
       <c r="B308" s="18"/>
-      <c r="C308" s="18"/>
+      <c r="C308" s="15"/>
       <c r="D308" s="18"/>
       <c r="E308" s="18"/>
     </row>
-    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18"/>
       <c r="B309" s="18"/>
-      <c r="C309" s="18"/>
+      <c r="C309" s="15"/>
       <c r="D309" s="18"/>
       <c r="E309" s="18"/>
     </row>
-    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18"/>
       <c r="B310" s="18"/>
-      <c r="C310" s="18"/>
+      <c r="C310" s="15"/>
       <c r="D310" s="18"/>
       <c r="E310" s="18"/>
     </row>
-    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18"/>
       <c r="B311" s="18"/>
-      <c r="C311" s="18"/>
+      <c r="C311" s="15"/>
       <c r="D311" s="18"/>
       <c r="E311" s="18"/>
     </row>
-    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18"/>
       <c r="B312" s="18"/>
-      <c r="C312" s="18"/>
+      <c r="C312" s="15"/>
       <c r="D312" s="18"/>
       <c r="E312" s="18"/>
     </row>
-    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18"/>
       <c r="B313" s="18"/>
-      <c r="C313" s="18"/>
+      <c r="C313" s="15"/>
       <c r="D313" s="18"/>
       <c r="E313" s="18"/>
     </row>
-    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18"/>
       <c r="B314" s="18"/>
-      <c r="C314" s="18"/>
+      <c r="C314" s="15"/>
       <c r="D314" s="18"/>
       <c r="E314" s="18"/>
     </row>
-    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18"/>
       <c r="B315" s="18"/>
-      <c r="C315" s="18"/>
+      <c r="C315" s="15"/>
       <c r="D315" s="18"/>
       <c r="E315" s="18"/>
     </row>
-    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18"/>
       <c r="B316" s="18"/>
-      <c r="C316" s="18"/>
+      <c r="C316" s="15"/>
       <c r="D316" s="18"/>
       <c r="E316" s="18"/>
     </row>
-    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18"/>
       <c r="B317" s="18"/>
-      <c r="C317" s="18"/>
+      <c r="C317" s="15"/>
       <c r="D317" s="18"/>
       <c r="E317" s="18"/>
     </row>
-    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18"/>
       <c r="B318" s="18"/>
-      <c r="C318" s="18"/>
+      <c r="C318" s="15"/>
       <c r="D318" s="18"/>
       <c r="E318" s="18"/>
     </row>
-    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18"/>
       <c r="B319" s="18"/>
-      <c r="C319" s="18"/>
+      <c r="C319" s="15"/>
       <c r="D319" s="18"/>
       <c r="E319" s="18"/>
     </row>
-    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18"/>
       <c r="B320" s="18"/>
-      <c r="C320" s="18"/>
+      <c r="C320" s="15"/>
       <c r="D320" s="18"/>
       <c r="E320" s="18"/>
     </row>
-    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18"/>
       <c r="B321" s="18"/>
-      <c r="C321" s="18"/>
+      <c r="C321" s="15"/>
       <c r="D321" s="18"/>
       <c r="E321" s="18"/>
     </row>
-    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18"/>
       <c r="B322" s="18"/>
-      <c r="C322" s="18"/>
+      <c r="C322" s="15"/>
       <c r="D322" s="18"/>
       <c r="E322" s="18"/>
     </row>
-    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18"/>
       <c r="B323" s="18"/>
-      <c r="C323" s="18"/>
+      <c r="C323" s="15"/>
       <c r="D323" s="18"/>
       <c r="E323" s="18"/>
     </row>
-    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18"/>
       <c r="B324" s="18"/>
-      <c r="C324" s="18"/>
+      <c r="C324" s="15"/>
       <c r="D324" s="18"/>
       <c r="E324" s="18"/>
     </row>
-    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18"/>
       <c r="B325" s="18"/>
-      <c r="C325" s="18"/>
+      <c r="C325" s="15"/>
       <c r="D325" s="18"/>
       <c r="E325" s="18"/>
     </row>
-    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18"/>
       <c r="B326" s="18"/>
-      <c r="C326" s="18"/>
+      <c r="C326" s="15"/>
       <c r="D326" s="18"/>
       <c r="E326" s="18"/>
     </row>
-    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18"/>
       <c r="B327" s="18"/>
-      <c r="C327" s="18"/>
+      <c r="C327" s="15"/>
       <c r="D327" s="18"/>
       <c r="E327" s="18"/>
     </row>
-    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18"/>
       <c r="B328" s="18"/>
-      <c r="C328" s="18"/>
+      <c r="C328" s="15"/>
       <c r="D328" s="18"/>
       <c r="E328" s="18"/>
     </row>
-    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18"/>
       <c r="B329" s="18"/>
-      <c r="C329" s="18"/>
+      <c r="C329" s="15"/>
       <c r="D329" s="18"/>
       <c r="E329" s="18"/>
     </row>
-    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18"/>
       <c r="B330" s="18"/>
-      <c r="C330" s="18"/>
+      <c r="C330" s="15"/>
       <c r="D330" s="18"/>
       <c r="E330" s="18"/>
     </row>
-    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18"/>
       <c r="B331" s="18"/>
-      <c r="C331" s="18"/>
+      <c r="C331" s="15"/>
       <c r="D331" s="18"/>
       <c r="E331" s="18"/>
     </row>
-    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18"/>
       <c r="B332" s="18"/>
-      <c r="C332" s="18"/>
+      <c r="C332" s="15"/>
       <c r="D332" s="18"/>
       <c r="E332" s="18"/>
     </row>
-    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18"/>
       <c r="B333" s="18"/>
-      <c r="C333" s="18"/>
+      <c r="C333" s="15"/>
       <c r="D333" s="18"/>
       <c r="E333" s="18"/>
     </row>
-    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18"/>
       <c r="B334" s="18"/>
-      <c r="C334" s="18"/>
+      <c r="C334" s="15"/>
       <c r="D334" s="18"/>
       <c r="E334" s="18"/>
     </row>
-    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18"/>
       <c r="B335" s="18"/>
-      <c r="C335" s="18"/>
+      <c r="C335" s="15"/>
       <c r="D335" s="18"/>
       <c r="E335" s="18"/>
     </row>
-    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18"/>
       <c r="B336" s="18"/>
-      <c r="C336" s="18"/>
+      <c r="C336" s="15"/>
       <c r="D336" s="18"/>
       <c r="E336" s="18"/>
     </row>
-    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18"/>
       <c r="B337" s="18"/>
-      <c r="C337" s="18"/>
+      <c r="C337" s="15"/>
       <c r="D337" s="18"/>
       <c r="E337" s="18"/>
     </row>
-    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18"/>
       <c r="B338" s="18"/>
-      <c r="C338" s="18"/>
+      <c r="C338" s="15"/>
       <c r="D338" s="18"/>
       <c r="E338" s="18"/>
     </row>
-    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18"/>
       <c r="B339" s="18"/>
-      <c r="C339" s="18"/>
+      <c r="C339" s="15"/>
       <c r="D339" s="18"/>
       <c r="E339" s="18"/>
     </row>
-    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18"/>
       <c r="B340" s="18"/>
-      <c r="C340" s="18"/>
+      <c r="C340" s="15"/>
       <c r="D340" s="18"/>
       <c r="E340" s="18"/>
     </row>
-    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18"/>
       <c r="B341" s="18"/>
-      <c r="C341" s="18"/>
+      <c r="C341" s="15"/>
       <c r="D341" s="18"/>
       <c r="E341" s="18"/>
     </row>
-    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18"/>
       <c r="B342" s="18"/>
-      <c r="C342" s="18"/>
+      <c r="C342" s="15"/>
       <c r="D342" s="18"/>
       <c r="E342" s="18"/>
     </row>
-    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18"/>
       <c r="B343" s="18"/>
-      <c r="C343" s="18"/>
+      <c r="C343" s="15"/>
       <c r="D343" s="18"/>
       <c r="E343" s="18"/>
     </row>
-    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18"/>
       <c r="B344" s="18"/>
-      <c r="C344" s="18"/>
+      <c r="C344" s="15"/>
       <c r="D344" s="18"/>
       <c r="E344" s="18"/>
     </row>
-    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18"/>
       <c r="B345" s="18"/>
-      <c r="C345" s="18"/>
+      <c r="C345" s="15"/>
       <c r="D345" s="18"/>
       <c r="E345" s="18"/>
     </row>
-    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18"/>
       <c r="B346" s="18"/>
-      <c r="C346" s="18"/>
+      <c r="C346" s="15"/>
       <c r="D346" s="18"/>
       <c r="E346" s="18"/>
     </row>
-    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="18"/>
       <c r="B347" s="18"/>
-      <c r="C347" s="18"/>
+      <c r="C347" s="15"/>
       <c r="D347" s="18"/>
       <c r="E347" s="18"/>
     </row>
-    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="18"/>
       <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
+      <c r="C348" s="15"/>
       <c r="D348" s="18"/>
       <c r="E348" s="18"/>
     </row>
-    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="18"/>
       <c r="B349" s="18"/>
-      <c r="C349" s="18"/>
+      <c r="C349" s="15"/>
       <c r="D349" s="18"/>
       <c r="E349" s="18"/>
     </row>
-    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="18"/>
       <c r="B350" s="18"/>
-      <c r="C350" s="18"/>
+      <c r="C350" s="15"/>
       <c r="D350" s="18"/>
       <c r="E350" s="18"/>
     </row>
-    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="18"/>
       <c r="B351" s="18"/>
-      <c r="C351" s="18"/>
+      <c r="C351" s="15"/>
       <c r="D351" s="18"/>
       <c r="E351" s="18"/>
     </row>
-    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="18"/>
       <c r="B352" s="18"/>
-      <c r="C352" s="18"/>
+      <c r="C352" s="15"/>
       <c r="D352" s="18"/>
       <c r="E352" s="18"/>
     </row>
-    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="18"/>
       <c r="B353" s="18"/>
-      <c r="C353" s="18"/>
+      <c r="C353" s="15"/>
       <c r="D353" s="18"/>
       <c r="E353" s="18"/>
     </row>
-    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="18"/>
       <c r="B354" s="18"/>
-      <c r="C354" s="18"/>
+      <c r="C354" s="15"/>
       <c r="D354" s="18"/>
       <c r="E354" s="18"/>
     </row>
-    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="18"/>
       <c r="B355" s="18"/>
-      <c r="C355" s="18"/>
+      <c r="C355" s="15"/>
       <c r="D355" s="18"/>
       <c r="E355" s="18"/>
     </row>
-    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="18"/>
       <c r="B356" s="18"/>
-      <c r="C356" s="18"/>
+      <c r="C356" s="15"/>
       <c r="D356" s="18"/>
       <c r="E356" s="18"/>
     </row>
-    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="18"/>
       <c r="B357" s="18"/>
-      <c r="C357" s="18"/>
+      <c r="C357" s="15"/>
       <c r="D357" s="18"/>
       <c r="E357" s="18"/>
     </row>
-    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="18"/>
       <c r="B358" s="18"/>
-      <c r="C358" s="18"/>
+      <c r="C358" s="15"/>
       <c r="D358" s="18"/>
       <c r="E358" s="18"/>
     </row>
-    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="18"/>
       <c r="B359" s="18"/>
-      <c r="C359" s="18"/>
+      <c r="C359" s="15"/>
       <c r="D359" s="18"/>
       <c r="E359" s="18"/>
     </row>
-    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="18"/>
       <c r="B360" s="18"/>
-      <c r="C360" s="18"/>
+      <c r="C360" s="15"/>
       <c r="D360" s="18"/>
       <c r="E360" s="18"/>
     </row>
-    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="18"/>
       <c r="B361" s="18"/>
-      <c r="C361" s="18"/>
+      <c r="C361" s="15"/>
       <c r="D361" s="18"/>
       <c r="E361" s="18"/>
     </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="18"/>
       <c r="B362" s="18"/>
-      <c r="C362" s="18"/>
+      <c r="C362" s="15"/>
       <c r="D362" s="18"/>
       <c r="E362" s="18"/>
     </row>
-    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="18"/>
       <c r="B363" s="18"/>
-      <c r="C363" s="18"/>
+      <c r="C363" s="15"/>
       <c r="D363" s="18"/>
       <c r="E363" s="18"/>
     </row>
-    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="18"/>
       <c r="B364" s="18"/>
-      <c r="C364" s="18"/>
+      <c r="C364" s="15"/>
       <c r="D364" s="18"/>
       <c r="E364" s="18"/>
     </row>
-    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="18"/>
       <c r="B365" s="18"/>
-      <c r="C365" s="18"/>
+      <c r="C365" s="15"/>
       <c r="D365" s="18"/>
       <c r="E365" s="18"/>
     </row>
-    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="18"/>
       <c r="B366" s="18"/>
-      <c r="C366" s="18"/>
+      <c r="C366" s="15"/>
       <c r="D366" s="18"/>
       <c r="E366" s="18"/>
     </row>
-    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="18"/>
       <c r="B367" s="18"/>
-      <c r="C367" s="18"/>
+      <c r="C367" s="15"/>
       <c r="D367" s="18"/>
       <c r="E367" s="18"/>
     </row>
-    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="18"/>
       <c r="B368" s="18"/>
-      <c r="C368" s="18"/>
+      <c r="C368" s="15"/>
       <c r="D368" s="18"/>
       <c r="E368" s="18"/>
     </row>
-    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="18"/>
       <c r="B369" s="18"/>
-      <c r="C369" s="18"/>
+      <c r="C369" s="15"/>
       <c r="D369" s="18"/>
       <c r="E369" s="18"/>
     </row>
-    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="18"/>
       <c r="B370" s="18"/>
-      <c r="C370" s="18"/>
+      <c r="C370" s="15"/>
       <c r="D370" s="18"/>
       <c r="E370" s="18"/>
     </row>
-    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="18"/>
       <c r="B371" s="18"/>
-      <c r="C371" s="18"/>
+      <c r="C371" s="15"/>
       <c r="D371" s="18"/>
       <c r="E371" s="18"/>
     </row>
-    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="18"/>
       <c r="B372" s="18"/>
-      <c r="C372" s="18"/>
+      <c r="C372" s="15"/>
       <c r="D372" s="18"/>
       <c r="E372" s="18"/>
     </row>
-    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="18"/>
       <c r="B373" s="18"/>
-      <c r="C373" s="18"/>
+      <c r="C373" s="15"/>
       <c r="D373" s="18"/>
       <c r="E373" s="18"/>
     </row>
-    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="18"/>
       <c r="B374" s="18"/>
-      <c r="C374" s="18"/>
+      <c r="C374" s="15"/>
       <c r="D374" s="18"/>
       <c r="E374" s="18"/>
     </row>
-    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="18"/>
       <c r="B375" s="18"/>
-      <c r="C375" s="18"/>
+      <c r="C375" s="15"/>
       <c r="D375" s="18"/>
       <c r="E375" s="18"/>
     </row>
-    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="18"/>
       <c r="B376" s="18"/>
-      <c r="C376" s="18"/>
+      <c r="C376" s="15"/>
       <c r="D376" s="18"/>
       <c r="E376" s="18"/>
     </row>
-    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="18"/>
       <c r="B377" s="18"/>
-      <c r="C377" s="18"/>
+      <c r="C377" s="15"/>
       <c r="D377" s="18"/>
       <c r="E377" s="18"/>
     </row>
-    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="18"/>
       <c r="B378" s="18"/>
-      <c r="C378" s="18"/>
+      <c r="C378" s="15"/>
       <c r="D378" s="18"/>
       <c r="E378" s="18"/>
     </row>
-    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="18"/>
       <c r="B379" s="18"/>
-      <c r="C379" s="18"/>
+      <c r="C379" s="15"/>
       <c r="D379" s="18"/>
       <c r="E379" s="18"/>
     </row>
-    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="18"/>
       <c r="B380" s="18"/>
-      <c r="C380" s="18"/>
+      <c r="C380" s="15"/>
       <c r="D380" s="18"/>
       <c r="E380" s="18"/>
     </row>
-    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="18"/>
       <c r="B381" s="18"/>
-      <c r="C381" s="18"/>
+      <c r="C381" s="15"/>
       <c r="D381" s="18"/>
       <c r="E381" s="18"/>
     </row>
-    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="18"/>
       <c r="B382" s="18"/>
-      <c r="C382" s="18"/>
+      <c r="C382" s="15"/>
       <c r="D382" s="18"/>
       <c r="E382" s="18"/>
     </row>
-    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="18"/>
       <c r="B383" s="18"/>
-      <c r="C383" s="18"/>
+      <c r="C383" s="15"/>
       <c r="D383" s="18"/>
       <c r="E383" s="18"/>
     </row>
-    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="18"/>
       <c r="B384" s="18"/>
-      <c r="C384" s="18"/>
+      <c r="C384" s="15"/>
       <c r="D384" s="18"/>
       <c r="E384" s="18"/>
     </row>
-    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="18"/>
       <c r="B385" s="18"/>
-      <c r="C385" s="18"/>
+      <c r="C385" s="15"/>
       <c r="D385" s="18"/>
       <c r="E385" s="18"/>
     </row>
-    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="18"/>
       <c r="B386" s="18"/>
-      <c r="C386" s="18"/>
+      <c r="C386" s="15"/>
       <c r="D386" s="18"/>
       <c r="E386" s="18"/>
     </row>
-    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="18"/>
       <c r="B387" s="18"/>
-      <c r="C387" s="18"/>
+      <c r="C387" s="15"/>
       <c r="D387" s="18"/>
       <c r="E387" s="18"/>
     </row>
-    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="18"/>
       <c r="B388" s="18"/>
-      <c r="C388" s="18"/>
+      <c r="C388" s="15"/>
       <c r="D388" s="18"/>
       <c r="E388" s="18"/>
     </row>
-    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="18"/>
       <c r="B389" s="18"/>
-      <c r="C389" s="18"/>
+      <c r="C389" s="15"/>
       <c r="D389" s="18"/>
       <c r="E389" s="18"/>
     </row>
-    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="18"/>
       <c r="B390" s="18"/>
-      <c r="C390" s="18"/>
+      <c r="C390" s="15"/>
       <c r="D390" s="18"/>
       <c r="E390" s="18"/>
     </row>
-    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="18"/>
       <c r="B391" s="18"/>
-      <c r="C391" s="18"/>
+      <c r="C391" s="15"/>
       <c r="D391" s="18"/>
       <c r="E391" s="18"/>
     </row>
-    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="19"/>
       <c r="B392" s="19"/>
-      <c r="C392" s="19"/>
+      <c r="C392" s="23"/>
       <c r="D392" s="19"/>
       <c r="E392" s="19"/>
     </row>
@@ -4021,11 +5110,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9A4689F-716A-0D41-8FE6-7E58986EBF46}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9D29CC9-9AA9-DB47-9EE7-212AB6C131DD}">
           <x14:formula1>
-            <xm:f>Structures!$A$2:$A$4</xm:f>
+            <xm:f>Structures!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>C9</xm:sqref>
+          <xm:sqref>C9:C392</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4037,14 +5126,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="233.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
@@ -4111,78 +5198,126 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">

--- a/backend/fms_core/static/submission_templates/Index_creation_v3_7_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Index_creation_v3_7_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/static/submission_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF9A5B1-FCB6-E048-9492-0E1CA2082A12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D48E883-4404-0041-B9B9-EAA804345BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Name</t>
-  </si>
   <si>
     <t>Set Name</t>
   </si>
@@ -1403,6 +1400,9 @@
       </rPr>
       <t>3 prime</t>
     </r>
+  </si>
+  <si>
+    <t>Index Name</t>
   </si>
 </sst>
 </file>
@@ -1585,17 +1585,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1622,14 +1618,38 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2021,2765 +2041,2765 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="39" style="24" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="26" customWidth="1"/>
     <col min="6" max="21" width="9.33203125" customWidth="1"/>
     <col min="1015" max="1017" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="25"/>
+      <c r="G5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="G5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
+      <c r="A127" s="14"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
+      <c r="A131" s="14"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
+      <c r="A132" s="14"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
+      <c r="A133" s="14"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="18"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
+      <c r="A135" s="14"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
+      <c r="A137" s="14"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
+      <c r="A138" s="14"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
+      <c r="A139" s="14"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
+      <c r="A141" s="14"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
+      <c r="A142" s="14"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
+      <c r="A143" s="14"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="18"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
+      <c r="A145" s="14"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
+      <c r="A147" s="14"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
+      <c r="A148" s="14"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
+      <c r="A149" s="14"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
+      <c r="A150" s="14"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
+      <c r="A151" s="14"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
+      <c r="A152" s="14"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
+      <c r="A153" s="14"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
+      <c r="A154" s="14"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
+      <c r="A155" s="14"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="18"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="22"/>
+      <c r="E157" s="22"/>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
+      <c r="A158" s="14"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
+      <c r="A159" s="14"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
+      <c r="A161" s="14"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="22"/>
+      <c r="E161" s="22"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="18"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
+      <c r="A162" s="14"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
+      <c r="A163" s="14"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
+      <c r="A164" s="14"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="22"/>
+      <c r="E164" s="22"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
+      <c r="A165" s="14"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
+      <c r="A166" s="14"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="18"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
+      <c r="A167" s="14"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="22"/>
+      <c r="E167" s="22"/>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="18"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="22"/>
+      <c r="E168" s="22"/>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
+      <c r="A169" s="14"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
+      <c r="A170" s="14"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="22"/>
+      <c r="E170" s="22"/>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="18"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
+      <c r="A171" s="14"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="22"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
+      <c r="A172" s="14"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="18"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
+      <c r="A173" s="14"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="18"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
+      <c r="A174" s="14"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="18"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
+      <c r="A175" s="14"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="22"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
+      <c r="A177" s="14"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
+      <c r="A178" s="14"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
+      <c r="A179" s="14"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
+      <c r="A180" s="14"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="22"/>
+      <c r="E180" s="22"/>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
+      <c r="A181" s="14"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="22"/>
+      <c r="E181" s="22"/>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="18"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
+      <c r="A182" s="14"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="18"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
+      <c r="A183" s="14"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="18"/>
-      <c r="B184" s="18"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="18"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="15"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
+      <c r="A185" s="14"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
+      <c r="A186" s="14"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="18"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
+      <c r="A187" s="14"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="18"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
+      <c r="A188" s="14"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="22"/>
+      <c r="E188" s="22"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="18"/>
-      <c r="B189" s="18"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
+      <c r="A189" s="14"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="18"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
+      <c r="A190" s="14"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="22"/>
+      <c r="E190" s="22"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
+      <c r="A191" s="14"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="22"/>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="18"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
+      <c r="A192" s="14"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="22"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="18"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
+      <c r="A193" s="14"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="18"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
+      <c r="A194" s="14"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="22"/>
+      <c r="E194" s="22"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
+      <c r="A195" s="14"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="18"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
+      <c r="A196" s="14"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="18"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
+      <c r="A197" s="14"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="22"/>
+      <c r="E197" s="22"/>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="18"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
+      <c r="A198" s="14"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="18"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
+      <c r="A199" s="14"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="22"/>
+      <c r="E199" s="22"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="18"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
+      <c r="A200" s="14"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="18"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
+      <c r="A201" s="14"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="22"/>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="18"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="18"/>
+      <c r="A202" s="14"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="18"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
+      <c r="A203" s="14"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="22"/>
+      <c r="E203" s="22"/>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="18"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="15"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
+      <c r="A204" s="14"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="22"/>
+      <c r="E204" s="22"/>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="18"/>
-      <c r="B205" s="18"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
+      <c r="A205" s="14"/>
+      <c r="B205" s="22"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="18"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
+      <c r="A206" s="14"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="22"/>
+      <c r="E206" s="22"/>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="18"/>
-      <c r="B207" s="18"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="18"/>
+      <c r="A207" s="14"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="22"/>
+      <c r="E207" s="22"/>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="18"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
+      <c r="A208" s="14"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="18"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
+      <c r="A209" s="14"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="18"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="15"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
+      <c r="A210" s="14"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="18"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="15"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
+      <c r="A211" s="14"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="18"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="18"/>
-      <c r="E212" s="18"/>
+      <c r="A212" s="14"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="22"/>
+      <c r="E212" s="22"/>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="18"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="18"/>
+      <c r="A213" s="14"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="22"/>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="18"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="18"/>
-      <c r="E214" s="18"/>
+      <c r="A214" s="14"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="22"/>
+      <c r="E214" s="22"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="18"/>
-      <c r="B215" s="18"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="18"/>
-      <c r="E215" s="18"/>
+      <c r="A215" s="14"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="22"/>
+      <c r="E215" s="22"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="18"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
+      <c r="A216" s="14"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="18"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
+      <c r="A217" s="14"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="22"/>
+      <c r="E217" s="22"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="18"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
+      <c r="A218" s="14"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="22"/>
+      <c r="E218" s="22"/>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="18"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
+      <c r="A219" s="14"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="22"/>
+      <c r="E219" s="22"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="18"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="15"/>
-      <c r="D220" s="18"/>
-      <c r="E220" s="18"/>
+      <c r="A220" s="14"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="22"/>
+      <c r="E220" s="22"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="18"/>
-      <c r="B221" s="18"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
+      <c r="A221" s="14"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="18"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="15"/>
-      <c r="D222" s="18"/>
-      <c r="E222" s="18"/>
+      <c r="A222" s="14"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="22"/>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="18"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="15"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
+      <c r="A223" s="14"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="22"/>
+      <c r="E223" s="22"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="18"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="15"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
+      <c r="A224" s="14"/>
+      <c r="B224" s="22"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="22"/>
+      <c r="E224" s="22"/>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="18"/>
-      <c r="B225" s="18"/>
-      <c r="C225" s="15"/>
-      <c r="D225" s="18"/>
-      <c r="E225" s="18"/>
+      <c r="A225" s="14"/>
+      <c r="B225" s="22"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="22"/>
+      <c r="E225" s="22"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="18"/>
-      <c r="B226" s="18"/>
-      <c r="C226" s="15"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
+      <c r="A226" s="14"/>
+      <c r="B226" s="22"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="22"/>
+      <c r="E226" s="22"/>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="18"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="15"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="18"/>
+      <c r="A227" s="14"/>
+      <c r="B227" s="22"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="22"/>
+      <c r="E227" s="22"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="18"/>
-      <c r="B228" s="18"/>
-      <c r="C228" s="15"/>
-      <c r="D228" s="18"/>
-      <c r="E228" s="18"/>
+      <c r="A228" s="14"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="18"/>
-      <c r="B229" s="18"/>
-      <c r="C229" s="15"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
+      <c r="A229" s="14"/>
+      <c r="B229" s="22"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="22"/>
+      <c r="E229" s="22"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="18"/>
-      <c r="B230" s="18"/>
-      <c r="C230" s="15"/>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
+      <c r="A230" s="14"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="22"/>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="18"/>
-      <c r="B231" s="18"/>
-      <c r="C231" s="15"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
+      <c r="A231" s="14"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="22"/>
+      <c r="E231" s="22"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="18"/>
-      <c r="B232" s="18"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="18"/>
-      <c r="E232" s="18"/>
+      <c r="A232" s="14"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="22"/>
+      <c r="E232" s="22"/>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="18"/>
-      <c r="B233" s="18"/>
-      <c r="C233" s="15"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
+      <c r="A233" s="14"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="22"/>
+      <c r="E233" s="22"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="18"/>
-      <c r="B234" s="18"/>
-      <c r="C234" s="15"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
+      <c r="A234" s="14"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="18"/>
-      <c r="B235" s="18"/>
-      <c r="C235" s="15"/>
-      <c r="D235" s="18"/>
-      <c r="E235" s="18"/>
+      <c r="A235" s="14"/>
+      <c r="B235" s="22"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="22"/>
+      <c r="E235" s="22"/>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="18"/>
-      <c r="B236" s="18"/>
-      <c r="C236" s="15"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
+      <c r="A236" s="14"/>
+      <c r="B236" s="22"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="22"/>
+      <c r="E236" s="22"/>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="18"/>
-      <c r="B237" s="18"/>
-      <c r="C237" s="15"/>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
+      <c r="A237" s="14"/>
+      <c r="B237" s="22"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="22"/>
+      <c r="E237" s="22"/>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="18"/>
-      <c r="B238" s="18"/>
-      <c r="C238" s="15"/>
-      <c r="D238" s="18"/>
-      <c r="E238" s="18"/>
+      <c r="A238" s="14"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="22"/>
+      <c r="E238" s="22"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="18"/>
-      <c r="B239" s="18"/>
-      <c r="C239" s="15"/>
-      <c r="D239" s="18"/>
-      <c r="E239" s="18"/>
+      <c r="A239" s="14"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="22"/>
+      <c r="E239" s="22"/>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="18"/>
-      <c r="B240" s="18"/>
-      <c r="C240" s="15"/>
-      <c r="D240" s="18"/>
-      <c r="E240" s="18"/>
+      <c r="A240" s="14"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="22"/>
+      <c r="E240" s="22"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="18"/>
-      <c r="B241" s="18"/>
-      <c r="C241" s="15"/>
-      <c r="D241" s="18"/>
-      <c r="E241" s="18"/>
+      <c r="A241" s="14"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="22"/>
+      <c r="E241" s="22"/>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="18"/>
-      <c r="B242" s="18"/>
-      <c r="C242" s="15"/>
-      <c r="D242" s="18"/>
-      <c r="E242" s="18"/>
+      <c r="A242" s="14"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="22"/>
+      <c r="E242" s="22"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="18"/>
-      <c r="B243" s="18"/>
-      <c r="C243" s="15"/>
-      <c r="D243" s="18"/>
-      <c r="E243" s="18"/>
+      <c r="A243" s="14"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="22"/>
+      <c r="E243" s="22"/>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="18"/>
-      <c r="B244" s="18"/>
-      <c r="C244" s="15"/>
-      <c r="D244" s="18"/>
-      <c r="E244" s="18"/>
+      <c r="A244" s="14"/>
+      <c r="B244" s="22"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="22"/>
+      <c r="E244" s="22"/>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="18"/>
-      <c r="B245" s="18"/>
-      <c r="C245" s="15"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
+      <c r="A245" s="14"/>
+      <c r="B245" s="22"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="22"/>
+      <c r="E245" s="22"/>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="18"/>
-      <c r="B246" s="18"/>
-      <c r="C246" s="15"/>
-      <c r="D246" s="18"/>
-      <c r="E246" s="18"/>
+      <c r="A246" s="14"/>
+      <c r="B246" s="22"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="22"/>
+      <c r="E246" s="22"/>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="18"/>
-      <c r="B247" s="18"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
+      <c r="A247" s="14"/>
+      <c r="B247" s="22"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="22"/>
+      <c r="E247" s="22"/>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="18"/>
-      <c r="B248" s="18"/>
-      <c r="C248" s="15"/>
-      <c r="D248" s="18"/>
-      <c r="E248" s="18"/>
+      <c r="A248" s="14"/>
+      <c r="B248" s="22"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="22"/>
+      <c r="E248" s="22"/>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="18"/>
-      <c r="B249" s="18"/>
-      <c r="C249" s="15"/>
-      <c r="D249" s="18"/>
-      <c r="E249" s="18"/>
+      <c r="A249" s="14"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="22"/>
+      <c r="E249" s="22"/>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="18"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="15"/>
-      <c r="D250" s="18"/>
-      <c r="E250" s="18"/>
+      <c r="A250" s="14"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="22"/>
+      <c r="E250" s="22"/>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="18"/>
-      <c r="B251" s="18"/>
-      <c r="C251" s="15"/>
-      <c r="D251" s="18"/>
-      <c r="E251" s="18"/>
+      <c r="A251" s="14"/>
+      <c r="B251" s="22"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="22"/>
+      <c r="E251" s="22"/>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="18"/>
-      <c r="B252" s="18"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="18"/>
-      <c r="E252" s="18"/>
+      <c r="A252" s="14"/>
+      <c r="B252" s="22"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="22"/>
+      <c r="E252" s="22"/>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="18"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="15"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="18"/>
+      <c r="A253" s="14"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="22"/>
+      <c r="E253" s="22"/>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="18"/>
-      <c r="B254" s="18"/>
-      <c r="C254" s="15"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
+      <c r="A254" s="14"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22"/>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="18"/>
-      <c r="B255" s="18"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="18"/>
+      <c r="A255" s="14"/>
+      <c r="B255" s="22"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="22"/>
+      <c r="E255" s="22"/>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="18"/>
-      <c r="B256" s="18"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="18"/>
-      <c r="E256" s="18"/>
+      <c r="A256" s="14"/>
+      <c r="B256" s="22"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="22"/>
+      <c r="E256" s="22"/>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="18"/>
-      <c r="B257" s="18"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="18"/>
-      <c r="E257" s="18"/>
+      <c r="A257" s="14"/>
+      <c r="B257" s="22"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="22"/>
+      <c r="E257" s="22"/>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="18"/>
-      <c r="B258" s="18"/>
-      <c r="C258" s="15"/>
-      <c r="D258" s="18"/>
-      <c r="E258" s="18"/>
+      <c r="A258" s="14"/>
+      <c r="B258" s="22"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="22"/>
+      <c r="E258" s="22"/>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="18"/>
-      <c r="B259" s="18"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="18"/>
-      <c r="E259" s="18"/>
+      <c r="A259" s="14"/>
+      <c r="B259" s="22"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="22"/>
+      <c r="E259" s="22"/>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="18"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="15"/>
-      <c r="D260" s="18"/>
-      <c r="E260" s="18"/>
+      <c r="A260" s="14"/>
+      <c r="B260" s="22"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="22"/>
+      <c r="E260" s="22"/>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="18"/>
-      <c r="B261" s="18"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="18"/>
-      <c r="E261" s="18"/>
+      <c r="A261" s="14"/>
+      <c r="B261" s="22"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22"/>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="18"/>
-      <c r="B262" s="18"/>
-      <c r="C262" s="15"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
+      <c r="A262" s="14"/>
+      <c r="B262" s="22"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="22"/>
+      <c r="E262" s="22"/>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="18"/>
-      <c r="B263" s="18"/>
-      <c r="C263" s="15"/>
-      <c r="D263" s="18"/>
-      <c r="E263" s="18"/>
+      <c r="A263" s="14"/>
+      <c r="B263" s="22"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="22"/>
+      <c r="E263" s="22"/>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="18"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="15"/>
-      <c r="D264" s="18"/>
-      <c r="E264" s="18"/>
+      <c r="A264" s="14"/>
+      <c r="B264" s="22"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="22"/>
+      <c r="E264" s="22"/>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="18"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="15"/>
-      <c r="D265" s="18"/>
-      <c r="E265" s="18"/>
+      <c r="A265" s="14"/>
+      <c r="B265" s="22"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="22"/>
+      <c r="E265" s="22"/>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="18"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="15"/>
-      <c r="D266" s="18"/>
-      <c r="E266" s="18"/>
+      <c r="A266" s="14"/>
+      <c r="B266" s="22"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="22"/>
+      <c r="E266" s="22"/>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="18"/>
-      <c r="B267" s="18"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="18"/>
+      <c r="A267" s="14"/>
+      <c r="B267" s="22"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="22"/>
+      <c r="E267" s="22"/>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="18"/>
-      <c r="B268" s="18"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="18"/>
+      <c r="A268" s="14"/>
+      <c r="B268" s="22"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="22"/>
+      <c r="E268" s="22"/>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="18"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="18"/>
+      <c r="A269" s="14"/>
+      <c r="B269" s="22"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="22"/>
+      <c r="E269" s="22"/>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="18"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="15"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
+      <c r="A270" s="14"/>
+      <c r="B270" s="22"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="22"/>
+      <c r="E270" s="22"/>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="18"/>
-      <c r="B271" s="18"/>
-      <c r="C271" s="15"/>
-      <c r="D271" s="18"/>
-      <c r="E271" s="18"/>
+      <c r="A271" s="14"/>
+      <c r="B271" s="22"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="22"/>
+      <c r="E271" s="22"/>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="18"/>
-      <c r="B272" s="18"/>
-      <c r="C272" s="15"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
+      <c r="A272" s="14"/>
+      <c r="B272" s="22"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="22"/>
+      <c r="E272" s="22"/>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="18"/>
-      <c r="B273" s="18"/>
-      <c r="C273" s="15"/>
-      <c r="D273" s="18"/>
-      <c r="E273" s="18"/>
+      <c r="A273" s="14"/>
+      <c r="B273" s="22"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="22"/>
+      <c r="E273" s="22"/>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="18"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="15"/>
-      <c r="D274" s="18"/>
-      <c r="E274" s="18"/>
+      <c r="A274" s="14"/>
+      <c r="B274" s="22"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="22"/>
+      <c r="E274" s="22"/>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="18"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="15"/>
-      <c r="D275" s="18"/>
-      <c r="E275" s="18"/>
+      <c r="A275" s="14"/>
+      <c r="B275" s="22"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="22"/>
+      <c r="E275" s="22"/>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="18"/>
-      <c r="B276" s="18"/>
-      <c r="C276" s="15"/>
-      <c r="D276" s="18"/>
-      <c r="E276" s="18"/>
+      <c r="A276" s="14"/>
+      <c r="B276" s="22"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="22"/>
+      <c r="E276" s="22"/>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="18"/>
-      <c r="B277" s="18"/>
-      <c r="C277" s="15"/>
-      <c r="D277" s="18"/>
-      <c r="E277" s="18"/>
+      <c r="A277" s="14"/>
+      <c r="B277" s="22"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="22"/>
+      <c r="E277" s="22"/>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="18"/>
-      <c r="B278" s="18"/>
-      <c r="C278" s="15"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="18"/>
+      <c r="A278" s="14"/>
+      <c r="B278" s="22"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="22"/>
+      <c r="E278" s="22"/>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="18"/>
-      <c r="B279" s="18"/>
-      <c r="C279" s="15"/>
-      <c r="D279" s="18"/>
-      <c r="E279" s="18"/>
+      <c r="A279" s="14"/>
+      <c r="B279" s="22"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="22"/>
+      <c r="E279" s="22"/>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="18"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="15"/>
-      <c r="D280" s="18"/>
-      <c r="E280" s="18"/>
+      <c r="A280" s="14"/>
+      <c r="B280" s="22"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="22"/>
+      <c r="E280" s="22"/>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="18"/>
-      <c r="B281" s="18"/>
-      <c r="C281" s="15"/>
-      <c r="D281" s="18"/>
-      <c r="E281" s="18"/>
+      <c r="A281" s="14"/>
+      <c r="B281" s="22"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="22"/>
+      <c r="E281" s="22"/>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="18"/>
-      <c r="B282" s="18"/>
-      <c r="C282" s="15"/>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
+      <c r="A282" s="14"/>
+      <c r="B282" s="22"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="22"/>
+      <c r="E282" s="22"/>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="18"/>
-      <c r="B283" s="18"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="18"/>
-      <c r="E283" s="18"/>
+      <c r="A283" s="14"/>
+      <c r="B283" s="22"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="22"/>
+      <c r="E283" s="22"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="18"/>
-      <c r="B284" s="18"/>
-      <c r="C284" s="15"/>
-      <c r="D284" s="18"/>
-      <c r="E284" s="18"/>
+      <c r="A284" s="14"/>
+      <c r="B284" s="22"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="22"/>
+      <c r="E284" s="22"/>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="18"/>
-      <c r="B285" s="18"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="18"/>
-      <c r="E285" s="18"/>
+      <c r="A285" s="14"/>
+      <c r="B285" s="22"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="22"/>
+      <c r="E285" s="22"/>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="18"/>
-      <c r="B286" s="18"/>
-      <c r="C286" s="15"/>
-      <c r="D286" s="18"/>
-      <c r="E286" s="18"/>
+      <c r="A286" s="14"/>
+      <c r="B286" s="22"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="22"/>
+      <c r="E286" s="22"/>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="18"/>
-      <c r="B287" s="18"/>
-      <c r="C287" s="15"/>
-      <c r="D287" s="18"/>
-      <c r="E287" s="18"/>
+      <c r="A287" s="14"/>
+      <c r="B287" s="22"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="22"/>
+      <c r="E287" s="22"/>
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="18"/>
-      <c r="B288" s="18"/>
-      <c r="C288" s="15"/>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
+      <c r="A288" s="14"/>
+      <c r="B288" s="22"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="22"/>
+      <c r="E288" s="22"/>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="18"/>
-      <c r="B289" s="18"/>
-      <c r="C289" s="15"/>
-      <c r="D289" s="18"/>
-      <c r="E289" s="18"/>
+      <c r="A289" s="14"/>
+      <c r="B289" s="22"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="22"/>
+      <c r="E289" s="22"/>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="18"/>
-      <c r="B290" s="18"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="18"/>
-      <c r="E290" s="18"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="22"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="22"/>
+      <c r="E290" s="22"/>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="18"/>
-      <c r="B291" s="18"/>
-      <c r="C291" s="15"/>
-      <c r="D291" s="18"/>
-      <c r="E291" s="18"/>
+      <c r="A291" s="14"/>
+      <c r="B291" s="22"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="22"/>
+      <c r="E291" s="22"/>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="18"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="15"/>
-      <c r="D292" s="18"/>
-      <c r="E292" s="18"/>
+      <c r="A292" s="14"/>
+      <c r="B292" s="22"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="22"/>
+      <c r="E292" s="22"/>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="18"/>
-      <c r="B293" s="18"/>
-      <c r="C293" s="15"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="18"/>
+      <c r="A293" s="14"/>
+      <c r="B293" s="22"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="22"/>
+      <c r="E293" s="22"/>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="18"/>
-      <c r="B294" s="18"/>
-      <c r="C294" s="15"/>
-      <c r="D294" s="18"/>
-      <c r="E294" s="18"/>
+      <c r="A294" s="14"/>
+      <c r="B294" s="22"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="22"/>
+      <c r="E294" s="22"/>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="18"/>
-      <c r="B295" s="18"/>
-      <c r="C295" s="15"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
+      <c r="A295" s="14"/>
+      <c r="B295" s="22"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="22"/>
+      <c r="E295" s="22"/>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="18"/>
-      <c r="B296" s="18"/>
-      <c r="C296" s="15"/>
-      <c r="D296" s="18"/>
-      <c r="E296" s="18"/>
+      <c r="A296" s="14"/>
+      <c r="B296" s="22"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="22"/>
+      <c r="E296" s="22"/>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="18"/>
-      <c r="B297" s="18"/>
-      <c r="C297" s="15"/>
-      <c r="D297" s="18"/>
-      <c r="E297" s="18"/>
+      <c r="A297" s="14"/>
+      <c r="B297" s="22"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="22"/>
+      <c r="E297" s="22"/>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="18"/>
-      <c r="B298" s="18"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="18"/>
-      <c r="E298" s="18"/>
+      <c r="A298" s="14"/>
+      <c r="B298" s="22"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="22"/>
+      <c r="E298" s="22"/>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="18"/>
-      <c r="B299" s="18"/>
-      <c r="C299" s="15"/>
-      <c r="D299" s="18"/>
-      <c r="E299" s="18"/>
+      <c r="A299" s="14"/>
+      <c r="B299" s="22"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="22"/>
+      <c r="E299" s="22"/>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="18"/>
-      <c r="B300" s="18"/>
-      <c r="C300" s="15"/>
-      <c r="D300" s="18"/>
-      <c r="E300" s="18"/>
+      <c r="A300" s="14"/>
+      <c r="B300" s="22"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="22"/>
+      <c r="E300" s="22"/>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="18"/>
-      <c r="B301" s="18"/>
-      <c r="C301" s="15"/>
-      <c r="D301" s="18"/>
-      <c r="E301" s="18"/>
+      <c r="A301" s="14"/>
+      <c r="B301" s="22"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="22"/>
+      <c r="E301" s="22"/>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="18"/>
-      <c r="B302" s="18"/>
-      <c r="C302" s="15"/>
-      <c r="D302" s="18"/>
-      <c r="E302" s="18"/>
+      <c r="A302" s="14"/>
+      <c r="B302" s="22"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="22"/>
+      <c r="E302" s="22"/>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="18"/>
-      <c r="B303" s="18"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="18"/>
-      <c r="E303" s="18"/>
+      <c r="A303" s="14"/>
+      <c r="B303" s="22"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="22"/>
+      <c r="E303" s="22"/>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="18"/>
-      <c r="B304" s="18"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="18"/>
-      <c r="E304" s="18"/>
+      <c r="A304" s="14"/>
+      <c r="B304" s="22"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="22"/>
+      <c r="E304" s="22"/>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="18"/>
-      <c r="B305" s="18"/>
-      <c r="C305" s="15"/>
-      <c r="D305" s="18"/>
-      <c r="E305" s="18"/>
+      <c r="A305" s="14"/>
+      <c r="B305" s="22"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="22"/>
+      <c r="E305" s="22"/>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="18"/>
-      <c r="B306" s="18"/>
-      <c r="C306" s="15"/>
-      <c r="D306" s="18"/>
-      <c r="E306" s="18"/>
+      <c r="A306" s="14"/>
+      <c r="B306" s="22"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="22"/>
+      <c r="E306" s="22"/>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="18"/>
-      <c r="B307" s="18"/>
-      <c r="C307" s="15"/>
-      <c r="D307" s="18"/>
-      <c r="E307" s="18"/>
+      <c r="A307" s="14"/>
+      <c r="B307" s="22"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="22"/>
+      <c r="E307" s="22"/>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="18"/>
-      <c r="B308" s="18"/>
-      <c r="C308" s="15"/>
-      <c r="D308" s="18"/>
-      <c r="E308" s="18"/>
+      <c r="A308" s="14"/>
+      <c r="B308" s="22"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="22"/>
+      <c r="E308" s="22"/>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="18"/>
-      <c r="B309" s="18"/>
-      <c r="C309" s="15"/>
-      <c r="D309" s="18"/>
-      <c r="E309" s="18"/>
+      <c r="A309" s="14"/>
+      <c r="B309" s="22"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="22"/>
+      <c r="E309" s="22"/>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="18"/>
-      <c r="B310" s="18"/>
-      <c r="C310" s="15"/>
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
+      <c r="A310" s="14"/>
+      <c r="B310" s="22"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="22"/>
+      <c r="E310" s="22"/>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="18"/>
-      <c r="B311" s="18"/>
-      <c r="C311" s="15"/>
-      <c r="D311" s="18"/>
-      <c r="E311" s="18"/>
+      <c r="A311" s="14"/>
+      <c r="B311" s="22"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="22"/>
+      <c r="E311" s="22"/>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="18"/>
-      <c r="B312" s="18"/>
-      <c r="C312" s="15"/>
-      <c r="D312" s="18"/>
-      <c r="E312" s="18"/>
+      <c r="A312" s="14"/>
+      <c r="B312" s="22"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="22"/>
+      <c r="E312" s="22"/>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="18"/>
-      <c r="B313" s="18"/>
-      <c r="C313" s="15"/>
-      <c r="D313" s="18"/>
-      <c r="E313" s="18"/>
+      <c r="A313" s="14"/>
+      <c r="B313" s="22"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="22"/>
+      <c r="E313" s="22"/>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="18"/>
-      <c r="B314" s="18"/>
-      <c r="C314" s="15"/>
-      <c r="D314" s="18"/>
-      <c r="E314" s="18"/>
+      <c r="A314" s="14"/>
+      <c r="B314" s="22"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="22"/>
+      <c r="E314" s="22"/>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="18"/>
-      <c r="B315" s="18"/>
-      <c r="C315" s="15"/>
-      <c r="D315" s="18"/>
-      <c r="E315" s="18"/>
+      <c r="A315" s="14"/>
+      <c r="B315" s="22"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="22"/>
+      <c r="E315" s="22"/>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="18"/>
-      <c r="B316" s="18"/>
-      <c r="C316" s="15"/>
-      <c r="D316" s="18"/>
-      <c r="E316" s="18"/>
+      <c r="A316" s="14"/>
+      <c r="B316" s="22"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="22"/>
+      <c r="E316" s="22"/>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="18"/>
-      <c r="B317" s="18"/>
-      <c r="C317" s="15"/>
-      <c r="D317" s="18"/>
-      <c r="E317" s="18"/>
+      <c r="A317" s="14"/>
+      <c r="B317" s="22"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="22"/>
+      <c r="E317" s="22"/>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="18"/>
-      <c r="B318" s="18"/>
-      <c r="C318" s="15"/>
-      <c r="D318" s="18"/>
-      <c r="E318" s="18"/>
+      <c r="A318" s="14"/>
+      <c r="B318" s="22"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="22"/>
+      <c r="E318" s="22"/>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="18"/>
-      <c r="B319" s="18"/>
-      <c r="C319" s="15"/>
-      <c r="D319" s="18"/>
-      <c r="E319" s="18"/>
+      <c r="A319" s="14"/>
+      <c r="B319" s="22"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="22"/>
+      <c r="E319" s="22"/>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="18"/>
-      <c r="B320" s="18"/>
-      <c r="C320" s="15"/>
-      <c r="D320" s="18"/>
-      <c r="E320" s="18"/>
+      <c r="A320" s="14"/>
+      <c r="B320" s="22"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="22"/>
+      <c r="E320" s="22"/>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="18"/>
-      <c r="B321" s="18"/>
-      <c r="C321" s="15"/>
-      <c r="D321" s="18"/>
-      <c r="E321" s="18"/>
+      <c r="A321" s="14"/>
+      <c r="B321" s="22"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="22"/>
+      <c r="E321" s="22"/>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="18"/>
-      <c r="B322" s="18"/>
-      <c r="C322" s="15"/>
-      <c r="D322" s="18"/>
-      <c r="E322" s="18"/>
+      <c r="A322" s="14"/>
+      <c r="B322" s="22"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="22"/>
+      <c r="E322" s="22"/>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="18"/>
-      <c r="B323" s="18"/>
-      <c r="C323" s="15"/>
-      <c r="D323" s="18"/>
-      <c r="E323" s="18"/>
+      <c r="A323" s="14"/>
+      <c r="B323" s="22"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="22"/>
+      <c r="E323" s="22"/>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="18"/>
-      <c r="B324" s="18"/>
-      <c r="C324" s="15"/>
-      <c r="D324" s="18"/>
-      <c r="E324" s="18"/>
+      <c r="A324" s="14"/>
+      <c r="B324" s="22"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="22"/>
+      <c r="E324" s="22"/>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="18"/>
-      <c r="B325" s="18"/>
-      <c r="C325" s="15"/>
-      <c r="D325" s="18"/>
-      <c r="E325" s="18"/>
+      <c r="A325" s="14"/>
+      <c r="B325" s="22"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="22"/>
+      <c r="E325" s="22"/>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="18"/>
-      <c r="B326" s="18"/>
-      <c r="C326" s="15"/>
-      <c r="D326" s="18"/>
-      <c r="E326" s="18"/>
+      <c r="A326" s="14"/>
+      <c r="B326" s="22"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="22"/>
+      <c r="E326" s="22"/>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="18"/>
-      <c r="B327" s="18"/>
-      <c r="C327" s="15"/>
-      <c r="D327" s="18"/>
-      <c r="E327" s="18"/>
+      <c r="A327" s="14"/>
+      <c r="B327" s="22"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="22"/>
+      <c r="E327" s="22"/>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="18"/>
-      <c r="B328" s="18"/>
-      <c r="C328" s="15"/>
-      <c r="D328" s="18"/>
-      <c r="E328" s="18"/>
+      <c r="A328" s="14"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="22"/>
+      <c r="E328" s="22"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="18"/>
-      <c r="B329" s="18"/>
-      <c r="C329" s="15"/>
-      <c r="D329" s="18"/>
-      <c r="E329" s="18"/>
+      <c r="A329" s="14"/>
+      <c r="B329" s="22"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="22"/>
+      <c r="E329" s="22"/>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="18"/>
-      <c r="B330" s="18"/>
-      <c r="C330" s="15"/>
-      <c r="D330" s="18"/>
-      <c r="E330" s="18"/>
+      <c r="A330" s="14"/>
+      <c r="B330" s="22"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="22"/>
+      <c r="E330" s="22"/>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="18"/>
-      <c r="B331" s="18"/>
-      <c r="C331" s="15"/>
-      <c r="D331" s="18"/>
-      <c r="E331" s="18"/>
+      <c r="A331" s="14"/>
+      <c r="B331" s="22"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="22"/>
+      <c r="E331" s="22"/>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="18"/>
-      <c r="B332" s="18"/>
-      <c r="C332" s="15"/>
-      <c r="D332" s="18"/>
-      <c r="E332" s="18"/>
+      <c r="A332" s="14"/>
+      <c r="B332" s="22"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="22"/>
+      <c r="E332" s="22"/>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="18"/>
-      <c r="B333" s="18"/>
-      <c r="C333" s="15"/>
-      <c r="D333" s="18"/>
-      <c r="E333" s="18"/>
+      <c r="A333" s="14"/>
+      <c r="B333" s="22"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="22"/>
+      <c r="E333" s="22"/>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="18"/>
-      <c r="B334" s="18"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="18"/>
-      <c r="E334" s="18"/>
+      <c r="A334" s="14"/>
+      <c r="B334" s="22"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="22"/>
+      <c r="E334" s="22"/>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="18"/>
-      <c r="B335" s="18"/>
-      <c r="C335" s="15"/>
-      <c r="D335" s="18"/>
-      <c r="E335" s="18"/>
+      <c r="A335" s="14"/>
+      <c r="B335" s="22"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="22"/>
+      <c r="E335" s="22"/>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="18"/>
-      <c r="B336" s="18"/>
-      <c r="C336" s="15"/>
-      <c r="D336" s="18"/>
-      <c r="E336" s="18"/>
+      <c r="A336" s="14"/>
+      <c r="B336" s="22"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="22"/>
+      <c r="E336" s="22"/>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="18"/>
-      <c r="B337" s="18"/>
-      <c r="C337" s="15"/>
-      <c r="D337" s="18"/>
-      <c r="E337" s="18"/>
+      <c r="A337" s="14"/>
+      <c r="B337" s="22"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="22"/>
+      <c r="E337" s="22"/>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="18"/>
-      <c r="B338" s="18"/>
-      <c r="C338" s="15"/>
-      <c r="D338" s="18"/>
-      <c r="E338" s="18"/>
+      <c r="A338" s="14"/>
+      <c r="B338" s="22"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="22"/>
+      <c r="E338" s="22"/>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="18"/>
-      <c r="B339" s="18"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="18"/>
-      <c r="E339" s="18"/>
+      <c r="A339" s="14"/>
+      <c r="B339" s="22"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="22"/>
+      <c r="E339" s="22"/>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="18"/>
-      <c r="B340" s="18"/>
-      <c r="C340" s="15"/>
-      <c r="D340" s="18"/>
-      <c r="E340" s="18"/>
+      <c r="A340" s="14"/>
+      <c r="B340" s="22"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="22"/>
+      <c r="E340" s="22"/>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="18"/>
-      <c r="B341" s="18"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="18"/>
-      <c r="E341" s="18"/>
+      <c r="A341" s="14"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="22"/>
+      <c r="E341" s="22"/>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="18"/>
-      <c r="B342" s="18"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="18"/>
-      <c r="E342" s="18"/>
+      <c r="A342" s="14"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="22"/>
+      <c r="E342" s="22"/>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="18"/>
-      <c r="B343" s="18"/>
-      <c r="C343" s="15"/>
-      <c r="D343" s="18"/>
-      <c r="E343" s="18"/>
+      <c r="A343" s="14"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="22"/>
+      <c r="E343" s="22"/>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="18"/>
-      <c r="B344" s="18"/>
-      <c r="C344" s="15"/>
-      <c r="D344" s="18"/>
-      <c r="E344" s="18"/>
+      <c r="A344" s="14"/>
+      <c r="B344" s="22"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="22"/>
+      <c r="E344" s="22"/>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="18"/>
-      <c r="B345" s="18"/>
-      <c r="C345" s="15"/>
-      <c r="D345" s="18"/>
-      <c r="E345" s="18"/>
+      <c r="A345" s="14"/>
+      <c r="B345" s="22"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="22"/>
+      <c r="E345" s="22"/>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="18"/>
-      <c r="B346" s="18"/>
-      <c r="C346" s="15"/>
-      <c r="D346" s="18"/>
-      <c r="E346" s="18"/>
+      <c r="A346" s="14"/>
+      <c r="B346" s="22"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="22"/>
+      <c r="E346" s="22"/>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="18"/>
-      <c r="B347" s="18"/>
-      <c r="C347" s="15"/>
-      <c r="D347" s="18"/>
-      <c r="E347" s="18"/>
+      <c r="A347" s="14"/>
+      <c r="B347" s="22"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="22"/>
+      <c r="E347" s="22"/>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="18"/>
-      <c r="B348" s="18"/>
-      <c r="C348" s="15"/>
-      <c r="D348" s="18"/>
-      <c r="E348" s="18"/>
+      <c r="A348" s="14"/>
+      <c r="B348" s="22"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="22"/>
+      <c r="E348" s="22"/>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="18"/>
-      <c r="B349" s="18"/>
-      <c r="C349" s="15"/>
-      <c r="D349" s="18"/>
-      <c r="E349" s="18"/>
+      <c r="A349" s="14"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="22"/>
+      <c r="E349" s="22"/>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="18"/>
-      <c r="B350" s="18"/>
-      <c r="C350" s="15"/>
-      <c r="D350" s="18"/>
-      <c r="E350" s="18"/>
+      <c r="A350" s="14"/>
+      <c r="B350" s="22"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="22"/>
+      <c r="E350" s="22"/>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="18"/>
-      <c r="B351" s="18"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="18"/>
-      <c r="E351" s="18"/>
+      <c r="A351" s="14"/>
+      <c r="B351" s="22"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="22"/>
+      <c r="E351" s="22"/>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="18"/>
-      <c r="B352" s="18"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="18"/>
-      <c r="E352" s="18"/>
+      <c r="A352" s="14"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="22"/>
+      <c r="E352" s="22"/>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="18"/>
-      <c r="B353" s="18"/>
-      <c r="C353" s="15"/>
-      <c r="D353" s="18"/>
-      <c r="E353" s="18"/>
+      <c r="A353" s="14"/>
+      <c r="B353" s="22"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="22"/>
+      <c r="E353" s="22"/>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="18"/>
-      <c r="B354" s="18"/>
-      <c r="C354" s="15"/>
-      <c r="D354" s="18"/>
-      <c r="E354" s="18"/>
+      <c r="A354" s="14"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="22"/>
+      <c r="E354" s="22"/>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="18"/>
-      <c r="B355" s="18"/>
-      <c r="C355" s="15"/>
-      <c r="D355" s="18"/>
-      <c r="E355" s="18"/>
+      <c r="A355" s="14"/>
+      <c r="B355" s="22"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="22"/>
+      <c r="E355" s="22"/>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="18"/>
-      <c r="B356" s="18"/>
-      <c r="C356" s="15"/>
-      <c r="D356" s="18"/>
-      <c r="E356" s="18"/>
+      <c r="A356" s="14"/>
+      <c r="B356" s="22"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="22"/>
+      <c r="E356" s="22"/>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="18"/>
-      <c r="B357" s="18"/>
-      <c r="C357" s="15"/>
-      <c r="D357" s="18"/>
-      <c r="E357" s="18"/>
+      <c r="A357" s="14"/>
+      <c r="B357" s="22"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="22"/>
+      <c r="E357" s="22"/>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="18"/>
-      <c r="B358" s="18"/>
-      <c r="C358" s="15"/>
-      <c r="D358" s="18"/>
-      <c r="E358" s="18"/>
+      <c r="A358" s="14"/>
+      <c r="B358" s="22"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="22"/>
+      <c r="E358" s="22"/>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="18"/>
-      <c r="B359" s="18"/>
-      <c r="C359" s="15"/>
-      <c r="D359" s="18"/>
-      <c r="E359" s="18"/>
+      <c r="A359" s="14"/>
+      <c r="B359" s="22"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="22"/>
+      <c r="E359" s="22"/>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="18"/>
-      <c r="B360" s="18"/>
-      <c r="C360" s="15"/>
-      <c r="D360" s="18"/>
-      <c r="E360" s="18"/>
+      <c r="A360" s="14"/>
+      <c r="B360" s="22"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="22"/>
+      <c r="E360" s="22"/>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="18"/>
-      <c r="B361" s="18"/>
-      <c r="C361" s="15"/>
-      <c r="D361" s="18"/>
-      <c r="E361" s="18"/>
+      <c r="A361" s="14"/>
+      <c r="B361" s="22"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="22"/>
+      <c r="E361" s="22"/>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="18"/>
-      <c r="B362" s="18"/>
-      <c r="C362" s="15"/>
-      <c r="D362" s="18"/>
-      <c r="E362" s="18"/>
+      <c r="A362" s="14"/>
+      <c r="B362" s="22"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="22"/>
+      <c r="E362" s="22"/>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="18"/>
-      <c r="B363" s="18"/>
-      <c r="C363" s="15"/>
-      <c r="D363" s="18"/>
-      <c r="E363" s="18"/>
+      <c r="A363" s="14"/>
+      <c r="B363" s="22"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="22"/>
+      <c r="E363" s="22"/>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="18"/>
-      <c r="B364" s="18"/>
-      <c r="C364" s="15"/>
-      <c r="D364" s="18"/>
-      <c r="E364" s="18"/>
+      <c r="A364" s="14"/>
+      <c r="B364" s="22"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="22"/>
+      <c r="E364" s="22"/>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="18"/>
-      <c r="B365" s="18"/>
-      <c r="C365" s="15"/>
-      <c r="D365" s="18"/>
-      <c r="E365" s="18"/>
+      <c r="A365" s="14"/>
+      <c r="B365" s="22"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="22"/>
+      <c r="E365" s="22"/>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="18"/>
-      <c r="B366" s="18"/>
-      <c r="C366" s="15"/>
-      <c r="D366" s="18"/>
-      <c r="E366" s="18"/>
+      <c r="A366" s="14"/>
+      <c r="B366" s="22"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="22"/>
+      <c r="E366" s="22"/>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="18"/>
-      <c r="B367" s="18"/>
-      <c r="C367" s="15"/>
-      <c r="D367" s="18"/>
-      <c r="E367" s="18"/>
+      <c r="A367" s="14"/>
+      <c r="B367" s="22"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="22"/>
+      <c r="E367" s="22"/>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="18"/>
-      <c r="B368" s="18"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="18"/>
-      <c r="E368" s="18"/>
+      <c r="A368" s="14"/>
+      <c r="B368" s="22"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="22"/>
+      <c r="E368" s="22"/>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="18"/>
-      <c r="B369" s="18"/>
-      <c r="C369" s="15"/>
-      <c r="D369" s="18"/>
-      <c r="E369" s="18"/>
+      <c r="A369" s="14"/>
+      <c r="B369" s="22"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="22"/>
+      <c r="E369" s="22"/>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="18"/>
-      <c r="B370" s="18"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="18"/>
-      <c r="E370" s="18"/>
+      <c r="A370" s="14"/>
+      <c r="B370" s="22"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="22"/>
+      <c r="E370" s="22"/>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="18"/>
-      <c r="B371" s="18"/>
-      <c r="C371" s="15"/>
-      <c r="D371" s="18"/>
-      <c r="E371" s="18"/>
+      <c r="A371" s="14"/>
+      <c r="B371" s="22"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="22"/>
+      <c r="E371" s="22"/>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="18"/>
-      <c r="B372" s="18"/>
-      <c r="C372" s="15"/>
-      <c r="D372" s="18"/>
-      <c r="E372" s="18"/>
+      <c r="A372" s="14"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="22"/>
+      <c r="E372" s="22"/>
     </row>
     <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="18"/>
-      <c r="B373" s="18"/>
-      <c r="C373" s="15"/>
-      <c r="D373" s="18"/>
-      <c r="E373" s="18"/>
+      <c r="A373" s="14"/>
+      <c r="B373" s="22"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="22"/>
+      <c r="E373" s="22"/>
     </row>
     <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="18"/>
-      <c r="B374" s="18"/>
-      <c r="C374" s="15"/>
-      <c r="D374" s="18"/>
-      <c r="E374" s="18"/>
+      <c r="A374" s="14"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="22"/>
+      <c r="E374" s="22"/>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="18"/>
-      <c r="B375" s="18"/>
-      <c r="C375" s="15"/>
-      <c r="D375" s="18"/>
-      <c r="E375" s="18"/>
+      <c r="A375" s="14"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="22"/>
+      <c r="E375" s="22"/>
     </row>
     <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="18"/>
-      <c r="B376" s="18"/>
-      <c r="C376" s="15"/>
-      <c r="D376" s="18"/>
-      <c r="E376" s="18"/>
+      <c r="A376" s="14"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="22"/>
+      <c r="E376" s="22"/>
     </row>
     <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="18"/>
-      <c r="B377" s="18"/>
-      <c r="C377" s="15"/>
-      <c r="D377" s="18"/>
-      <c r="E377" s="18"/>
+      <c r="A377" s="14"/>
+      <c r="B377" s="22"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="22"/>
+      <c r="E377" s="22"/>
     </row>
     <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="18"/>
-      <c r="B378" s="18"/>
-      <c r="C378" s="15"/>
-      <c r="D378" s="18"/>
-      <c r="E378" s="18"/>
+      <c r="A378" s="14"/>
+      <c r="B378" s="22"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="22"/>
+      <c r="E378" s="22"/>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="18"/>
-      <c r="B379" s="18"/>
-      <c r="C379" s="15"/>
-      <c r="D379" s="18"/>
-      <c r="E379" s="18"/>
+      <c r="A379" s="14"/>
+      <c r="B379" s="22"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="22"/>
+      <c r="E379" s="22"/>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="18"/>
-      <c r="B380" s="18"/>
-      <c r="C380" s="15"/>
-      <c r="D380" s="18"/>
-      <c r="E380" s="18"/>
+      <c r="A380" s="14"/>
+      <c r="B380" s="22"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="22"/>
+      <c r="E380" s="22"/>
     </row>
     <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="18"/>
-      <c r="B381" s="18"/>
-      <c r="C381" s="15"/>
-      <c r="D381" s="18"/>
-      <c r="E381" s="18"/>
+      <c r="A381" s="14"/>
+      <c r="B381" s="22"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="22"/>
+      <c r="E381" s="22"/>
     </row>
     <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="18"/>
-      <c r="B382" s="18"/>
-      <c r="C382" s="15"/>
-      <c r="D382" s="18"/>
-      <c r="E382" s="18"/>
+      <c r="A382" s="14"/>
+      <c r="B382" s="22"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="22"/>
+      <c r="E382" s="22"/>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="18"/>
-      <c r="B383" s="18"/>
-      <c r="C383" s="15"/>
-      <c r="D383" s="18"/>
-      <c r="E383" s="18"/>
+      <c r="A383" s="14"/>
+      <c r="B383" s="22"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="22"/>
+      <c r="E383" s="22"/>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="18"/>
-      <c r="B384" s="18"/>
-      <c r="C384" s="15"/>
-      <c r="D384" s="18"/>
-      <c r="E384" s="18"/>
+      <c r="A384" s="14"/>
+      <c r="B384" s="22"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="22"/>
+      <c r="E384" s="22"/>
     </row>
     <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="18"/>
-      <c r="B385" s="18"/>
-      <c r="C385" s="15"/>
-      <c r="D385" s="18"/>
-      <c r="E385" s="18"/>
+      <c r="A385" s="14"/>
+      <c r="B385" s="22"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="22"/>
+      <c r="E385" s="22"/>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="18"/>
-      <c r="B386" s="18"/>
-      <c r="C386" s="15"/>
-      <c r="D386" s="18"/>
-      <c r="E386" s="18"/>
+      <c r="A386" s="14"/>
+      <c r="B386" s="22"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="22"/>
+      <c r="E386" s="22"/>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="18"/>
-      <c r="B387" s="18"/>
-      <c r="C387" s="15"/>
-      <c r="D387" s="18"/>
-      <c r="E387" s="18"/>
+      <c r="A387" s="14"/>
+      <c r="B387" s="22"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="22"/>
+      <c r="E387" s="22"/>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="18"/>
-      <c r="B388" s="18"/>
-      <c r="C388" s="15"/>
-      <c r="D388" s="18"/>
-      <c r="E388" s="18"/>
+      <c r="A388" s="14"/>
+      <c r="B388" s="22"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="22"/>
+      <c r="E388" s="22"/>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="18"/>
-      <c r="B389" s="18"/>
-      <c r="C389" s="15"/>
-      <c r="D389" s="18"/>
-      <c r="E389" s="18"/>
+      <c r="A389" s="14"/>
+      <c r="B389" s="22"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="22"/>
+      <c r="E389" s="22"/>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="18"/>
-      <c r="B390" s="18"/>
-      <c r="C390" s="15"/>
-      <c r="D390" s="18"/>
-      <c r="E390" s="18"/>
+      <c r="A390" s="14"/>
+      <c r="B390" s="22"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="22"/>
+      <c r="E390" s="22"/>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="18"/>
-      <c r="B391" s="18"/>
-      <c r="C391" s="15"/>
-      <c r="D391" s="18"/>
-      <c r="E391" s="18"/>
+      <c r="A391" s="14"/>
+      <c r="B391" s="22"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="22"/>
+      <c r="E391" s="22"/>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="19"/>
-      <c r="B392" s="19"/>
-      <c r="C392" s="23"/>
-      <c r="D392" s="19"/>
-      <c r="E392" s="19"/>
+      <c r="A392" s="15"/>
+      <c r="B392" s="23"/>
+      <c r="C392" s="18"/>
+      <c r="D392" s="23"/>
+      <c r="E392" s="23"/>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5142,1740 +5162,1740 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>10</v>
+      <c r="B5" s="16" t="s">
+        <v>29</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>6</v>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>9</v>
+      <c r="B6" s="16" t="s">
+        <v>39</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="20"/>
-      <c r="C98" s="20"/>
+      <c r="A98" s="16"/>
+      <c r="C98" s="16"/>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="20"/>
-      <c r="C99" s="20"/>
+      <c r="A99" s="16"/>
+      <c r="C99" s="16"/>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="20"/>
-      <c r="C100" s="20"/>
+      <c r="A100" s="16"/>
+      <c r="C100" s="16"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="A101" s="16"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="C102" s="20"/>
+      <c r="A102" s="16"/>
+      <c r="C102" s="16"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
-      <c r="C103" s="20"/>
+      <c r="A103" s="16"/>
+      <c r="C103" s="16"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="20"/>
-      <c r="C104" s="20"/>
+      <c r="A104" s="16"/>
+      <c r="C104" s="16"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
-      <c r="C105" s="20"/>
+      <c r="A105" s="16"/>
+      <c r="C105" s="16"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="20"/>
-      <c r="C106" s="20"/>
+      <c r="A106" s="16"/>
+      <c r="C106" s="16"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
-      <c r="C107" s="20"/>
+      <c r="A107" s="16"/>
+      <c r="C107" s="16"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
-      <c r="C108" s="20"/>
+      <c r="A108" s="16"/>
+      <c r="C108" s="16"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
-      <c r="C109" s="20"/>
+      <c r="A109" s="16"/>
+      <c r="C109" s="16"/>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="20"/>
-      <c r="C110" s="20"/>
+      <c r="A110" s="16"/>
+      <c r="C110" s="16"/>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="20"/>
-      <c r="C111" s="20"/>
+      <c r="A111" s="16"/>
+      <c r="C111" s="16"/>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="20"/>
-      <c r="C112" s="20"/>
+      <c r="A112" s="16"/>
+      <c r="C112" s="16"/>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
-      <c r="C113" s="20"/>
+      <c r="A113" s="16"/>
+      <c r="C113" s="16"/>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="20"/>
-      <c r="C114" s="20"/>
+      <c r="A114" s="16"/>
+      <c r="C114" s="16"/>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="C115" s="20"/>
+      <c r="A115" s="16"/>
+      <c r="C115" s="16"/>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="20"/>
-      <c r="C116" s="20"/>
+      <c r="A116" s="16"/>
+      <c r="C116" s="16"/>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
-      <c r="C117" s="20"/>
+      <c r="A117" s="16"/>
+      <c r="C117" s="16"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="20"/>
-      <c r="C118" s="20"/>
+      <c r="A118" s="16"/>
+      <c r="C118" s="16"/>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="20"/>
-      <c r="C119" s="20"/>
+      <c r="A119" s="16"/>
+      <c r="C119" s="16"/>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="20"/>
-      <c r="C120" s="20"/>
+      <c r="A120" s="16"/>
+      <c r="C120" s="16"/>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="20"/>
-      <c r="C121" s="20"/>
+      <c r="A121" s="16"/>
+      <c r="C121" s="16"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="20"/>
-      <c r="C122" s="20"/>
+      <c r="A122" s="16"/>
+      <c r="C122" s="16"/>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="20"/>
-      <c r="C123" s="20"/>
+      <c r="A123" s="16"/>
+      <c r="C123" s="16"/>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="20"/>
-      <c r="C124" s="20"/>
+      <c r="A124" s="16"/>
+      <c r="C124" s="16"/>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="20"/>
-      <c r="C125" s="20"/>
+      <c r="A125" s="16"/>
+      <c r="C125" s="16"/>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="20"/>
-      <c r="C126" s="20"/>
+      <c r="A126" s="16"/>
+      <c r="C126" s="16"/>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="20"/>
-      <c r="C127" s="20"/>
+      <c r="A127" s="16"/>
+      <c r="C127" s="16"/>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="20"/>
-      <c r="C128" s="20"/>
+      <c r="A128" s="16"/>
+      <c r="C128" s="16"/>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="20"/>
-      <c r="C129" s="20"/>
+      <c r="A129" s="16"/>
+      <c r="C129" s="16"/>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="20"/>
-      <c r="C130" s="20"/>
+      <c r="A130" s="16"/>
+      <c r="C130" s="16"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="20"/>
-      <c r="C131" s="20"/>
+      <c r="A131" s="16"/>
+      <c r="C131" s="16"/>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="20"/>
-      <c r="C132" s="20"/>
+      <c r="A132" s="16"/>
+      <c r="C132" s="16"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="20"/>
-      <c r="C133" s="20"/>
+      <c r="A133" s="16"/>
+      <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="20"/>
-      <c r="C134" s="20"/>
+      <c r="A134" s="16"/>
+      <c r="C134" s="16"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="20"/>
-      <c r="C135" s="20"/>
+      <c r="A135" s="16"/>
+      <c r="C135" s="16"/>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="20"/>
-      <c r="C136" s="20"/>
+      <c r="A136" s="16"/>
+      <c r="C136" s="16"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="20"/>
-      <c r="C137" s="20"/>
+      <c r="A137" s="16"/>
+      <c r="C137" s="16"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="20"/>
-      <c r="C138" s="20"/>
+      <c r="A138" s="16"/>
+      <c r="C138" s="16"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="A139" s="16"/>
+      <c r="C139" s="16"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="20"/>
-      <c r="C140" s="20"/>
+      <c r="A140" s="16"/>
+      <c r="C140" s="16"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="20"/>
-      <c r="C141" s="20"/>
+      <c r="A141" s="16"/>
+      <c r="C141" s="16"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="20"/>
-      <c r="C142" s="20"/>
+      <c r="A142" s="16"/>
+      <c r="C142" s="16"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="20"/>
-      <c r="C143" s="20"/>
+      <c r="A143" s="16"/>
+      <c r="C143" s="16"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="20"/>
-      <c r="C144" s="20"/>
+      <c r="A144" s="16"/>
+      <c r="C144" s="16"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="20"/>
-      <c r="C145" s="20"/>
+      <c r="A145" s="16"/>
+      <c r="C145" s="16"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="20"/>
-      <c r="C146" s="20"/>
+      <c r="A146" s="16"/>
+      <c r="C146" s="16"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="20"/>
-      <c r="C147" s="20"/>
+      <c r="A147" s="16"/>
+      <c r="C147" s="16"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="20"/>
-      <c r="C148" s="20"/>
+      <c r="A148" s="16"/>
+      <c r="C148" s="16"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="C149" s="20"/>
+      <c r="A149" s="16"/>
+      <c r="C149" s="16"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="20"/>
-      <c r="C150" s="20"/>
+      <c r="A150" s="16"/>
+      <c r="C150" s="16"/>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="20"/>
-      <c r="C151" s="20"/>
+      <c r="A151" s="16"/>
+      <c r="C151" s="16"/>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="20"/>
-      <c r="C152" s="20"/>
+      <c r="A152" s="16"/>
+      <c r="C152" s="16"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="20"/>
-      <c r="C153" s="20"/>
+      <c r="A153" s="16"/>
+      <c r="C153" s="16"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="20"/>
-      <c r="C154" s="20"/>
+      <c r="A154" s="16"/>
+      <c r="C154" s="16"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="20"/>
-      <c r="C155" s="20"/>
+      <c r="A155" s="16"/>
+      <c r="C155" s="16"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="20"/>
-      <c r="C156" s="20"/>
+      <c r="A156" s="16"/>
+      <c r="C156" s="16"/>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="20"/>
-      <c r="C157" s="20"/>
+      <c r="A157" s="16"/>
+      <c r="C157" s="16"/>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="20"/>
-      <c r="C158" s="20"/>
+      <c r="A158" s="16"/>
+      <c r="C158" s="16"/>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="20"/>
-      <c r="C159" s="20"/>
+      <c r="A159" s="16"/>
+      <c r="C159" s="16"/>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="20"/>
-      <c r="C160" s="20"/>
+      <c r="A160" s="16"/>
+      <c r="C160" s="16"/>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="20"/>
-      <c r="C161" s="20"/>
+      <c r="A161" s="16"/>
+      <c r="C161" s="16"/>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="20"/>
-      <c r="C162" s="20"/>
+      <c r="A162" s="16"/>
+      <c r="C162" s="16"/>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="20"/>
-      <c r="C163" s="20"/>
+      <c r="A163" s="16"/>
+      <c r="C163" s="16"/>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="20"/>
-      <c r="C164" s="20"/>
+      <c r="A164" s="16"/>
+      <c r="C164" s="16"/>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="20"/>
-      <c r="C165" s="20"/>
+      <c r="A165" s="16"/>
+      <c r="C165" s="16"/>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="20"/>
-      <c r="C166" s="20"/>
+      <c r="A166" s="16"/>
+      <c r="C166" s="16"/>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="20"/>
-      <c r="C167" s="20"/>
+      <c r="A167" s="16"/>
+      <c r="C167" s="16"/>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="20"/>
-      <c r="C168" s="20"/>
+      <c r="A168" s="16"/>
+      <c r="C168" s="16"/>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="20"/>
-      <c r="C169" s="20"/>
+      <c r="A169" s="16"/>
+      <c r="C169" s="16"/>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="20"/>
-      <c r="C170" s="20"/>
+      <c r="A170" s="16"/>
+      <c r="C170" s="16"/>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="20"/>
-      <c r="C171" s="20"/>
+      <c r="A171" s="16"/>
+      <c r="C171" s="16"/>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="20"/>
-      <c r="C172" s="20"/>
+      <c r="A172" s="16"/>
+      <c r="C172" s="16"/>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="20"/>
-      <c r="C173" s="20"/>
+      <c r="A173" s="16"/>
+      <c r="C173" s="16"/>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="20"/>
-      <c r="C174" s="20"/>
+      <c r="A174" s="16"/>
+      <c r="C174" s="16"/>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="20"/>
-      <c r="C175" s="20"/>
+      <c r="A175" s="16"/>
+      <c r="C175" s="16"/>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="20"/>
-      <c r="C176" s="20"/>
+      <c r="A176" s="16"/>
+      <c r="C176" s="16"/>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="A177" s="16"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="20"/>
-      <c r="C178" s="20"/>
+      <c r="A178" s="16"/>
+      <c r="C178" s="16"/>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="20"/>
-      <c r="C179" s="20"/>
+      <c r="A179" s="16"/>
+      <c r="C179" s="16"/>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="20"/>
-      <c r="C180" s="20"/>
+      <c r="A180" s="16"/>
+      <c r="C180" s="16"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="20"/>
-      <c r="C181" s="20"/>
+      <c r="A181" s="16"/>
+      <c r="C181" s="16"/>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="20"/>
-      <c r="C182" s="20"/>
+      <c r="A182" s="16"/>
+      <c r="C182" s="16"/>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="20"/>
-      <c r="C183" s="20"/>
+      <c r="A183" s="16"/>
+      <c r="C183" s="16"/>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="20"/>
-      <c r="C184" s="20"/>
+      <c r="A184" s="16"/>
+      <c r="C184" s="16"/>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="20"/>
-      <c r="C185" s="20"/>
+      <c r="A185" s="16"/>
+      <c r="C185" s="16"/>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="20"/>
-      <c r="C186" s="20"/>
+      <c r="A186" s="16"/>
+      <c r="C186" s="16"/>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="20"/>
-      <c r="C187" s="20"/>
+      <c r="A187" s="16"/>
+      <c r="C187" s="16"/>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="20"/>
-      <c r="C188" s="20"/>
+      <c r="A188" s="16"/>
+      <c r="C188" s="16"/>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="20"/>
-      <c r="C189" s="20"/>
+      <c r="A189" s="16"/>
+      <c r="C189" s="16"/>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="20"/>
-      <c r="C190" s="20"/>
+      <c r="A190" s="16"/>
+      <c r="C190" s="16"/>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="20"/>
-      <c r="C191" s="20"/>
+      <c r="A191" s="16"/>
+      <c r="C191" s="16"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="20"/>
-      <c r="C192" s="20"/>
+      <c r="A192" s="16"/>
+      <c r="C192" s="16"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="20"/>
-      <c r="C193" s="20"/>
+      <c r="A193" s="16"/>
+      <c r="C193" s="16"/>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="20"/>
-      <c r="C194" s="20"/>
+      <c r="A194" s="16"/>
+      <c r="C194" s="16"/>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="20"/>
-      <c r="C195" s="20"/>
+      <c r="A195" s="16"/>
+      <c r="C195" s="16"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="20"/>
-      <c r="C196" s="20"/>
+      <c r="A196" s="16"/>
+      <c r="C196" s="16"/>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="20"/>
-      <c r="C197" s="20"/>
+      <c r="A197" s="16"/>
+      <c r="C197" s="16"/>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="20"/>
-      <c r="C198" s="20"/>
+      <c r="A198" s="16"/>
+      <c r="C198" s="16"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="20"/>
-      <c r="C199" s="20"/>
+      <c r="A199" s="16"/>
+      <c r="C199" s="16"/>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="20"/>
-      <c r="C200" s="20"/>
+      <c r="A200" s="16"/>
+      <c r="C200" s="16"/>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="20"/>
-      <c r="C201" s="20"/>
+      <c r="A201" s="16"/>
+      <c r="C201" s="16"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="20"/>
-      <c r="C202" s="20"/>
+      <c r="A202" s="16"/>
+      <c r="C202" s="16"/>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="20"/>
-      <c r="C203" s="20"/>
+      <c r="A203" s="16"/>
+      <c r="C203" s="16"/>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="20"/>
-      <c r="C204" s="20"/>
+      <c r="A204" s="16"/>
+      <c r="C204" s="16"/>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="20"/>
-      <c r="C205" s="20"/>
+      <c r="A205" s="16"/>
+      <c r="C205" s="16"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="20"/>
-      <c r="C206" s="20"/>
+      <c r="A206" s="16"/>
+      <c r="C206" s="16"/>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="20"/>
-      <c r="C207" s="20"/>
+      <c r="A207" s="16"/>
+      <c r="C207" s="16"/>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="20"/>
-      <c r="C208" s="20"/>
+      <c r="A208" s="16"/>
+      <c r="C208" s="16"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="20"/>
-      <c r="C209" s="20"/>
+      <c r="A209" s="16"/>
+      <c r="C209" s="16"/>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="20"/>
-      <c r="C210" s="20"/>
+      <c r="A210" s="16"/>
+      <c r="C210" s="16"/>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="20"/>
-      <c r="C211" s="20"/>
+      <c r="A211" s="16"/>
+      <c r="C211" s="16"/>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="20"/>
-      <c r="C212" s="20"/>
+      <c r="A212" s="16"/>
+      <c r="C212" s="16"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="20"/>
-      <c r="C213" s="20"/>
+      <c r="A213" s="16"/>
+      <c r="C213" s="16"/>
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="A214" s="16"/>
+      <c r="C214" s="16"/>
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="20"/>
-      <c r="C215" s="20"/>
+      <c r="A215" s="16"/>
+      <c r="C215" s="16"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="20"/>
-      <c r="C216" s="20"/>
+      <c r="A216" s="16"/>
+      <c r="C216" s="16"/>
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="20"/>
-      <c r="C217" s="20"/>
+      <c r="A217" s="16"/>
+      <c r="C217" s="16"/>
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="20"/>
-      <c r="C218" s="20"/>
+      <c r="A218" s="16"/>
+      <c r="C218" s="16"/>
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="20"/>
-      <c r="C219" s="20"/>
+      <c r="A219" s="16"/>
+      <c r="C219" s="16"/>
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="20"/>
-      <c r="C220" s="20"/>
+      <c r="A220" s="16"/>
+      <c r="C220" s="16"/>
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="20"/>
-      <c r="C221" s="20"/>
+      <c r="A221" s="16"/>
+      <c r="C221" s="16"/>
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="20"/>
-      <c r="C222" s="20"/>
+      <c r="A222" s="16"/>
+      <c r="C222" s="16"/>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="20"/>
-      <c r="C223" s="20"/>
+      <c r="A223" s="16"/>
+      <c r="C223" s="16"/>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="20"/>
-      <c r="C224" s="20"/>
+      <c r="A224" s="16"/>
+      <c r="C224" s="16"/>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="20"/>
-      <c r="C225" s="20"/>
+      <c r="A225" s="16"/>
+      <c r="C225" s="16"/>
     </row>
     <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="20"/>
-      <c r="C226" s="20"/>
+      <c r="A226" s="16"/>
+      <c r="C226" s="16"/>
     </row>
     <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="20"/>
-      <c r="C227" s="20"/>
+      <c r="A227" s="16"/>
+      <c r="C227" s="16"/>
     </row>
     <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="20"/>
-      <c r="C228" s="20"/>
+      <c r="A228" s="16"/>
+      <c r="C228" s="16"/>
     </row>
     <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="20"/>
-      <c r="C229" s="20"/>
+      <c r="A229" s="16"/>
+      <c r="C229" s="16"/>
     </row>
     <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="20"/>
-      <c r="C230" s="20"/>
+      <c r="A230" s="16"/>
+      <c r="C230" s="16"/>
     </row>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="20"/>
-      <c r="C231" s="20"/>
+      <c r="A231" s="16"/>
+      <c r="C231" s="16"/>
     </row>
     <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="20"/>
-      <c r="C232" s="20"/>
+      <c r="A232" s="16"/>
+      <c r="C232" s="16"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="20"/>
-      <c r="C233" s="20"/>
+      <c r="A233" s="16"/>
+      <c r="C233" s="16"/>
     </row>
     <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="20"/>
-      <c r="C234" s="20"/>
+      <c r="A234" s="16"/>
+      <c r="C234" s="16"/>
     </row>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="20"/>
-      <c r="C235" s="20"/>
+      <c r="A235" s="16"/>
+      <c r="C235" s="16"/>
     </row>
     <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="20"/>
-      <c r="C236" s="20"/>
+      <c r="A236" s="16"/>
+      <c r="C236" s="16"/>
     </row>
     <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="20"/>
-      <c r="C237" s="20"/>
+      <c r="A237" s="16"/>
+      <c r="C237" s="16"/>
     </row>
     <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="A238" s="16"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="20"/>
-      <c r="C239" s="20"/>
+      <c r="A239" s="16"/>
+      <c r="C239" s="16"/>
     </row>
     <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="20"/>
-      <c r="C240" s="20"/>
+      <c r="A240" s="16"/>
+      <c r="C240" s="16"/>
     </row>
     <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="20"/>
-      <c r="C241" s="20"/>
+      <c r="A241" s="16"/>
+      <c r="C241" s="16"/>
     </row>
     <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="20"/>
-      <c r="C242" s="20"/>
+      <c r="A242" s="16"/>
+      <c r="C242" s="16"/>
     </row>
     <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="20"/>
-      <c r="C243" s="20"/>
+      <c r="A243" s="16"/>
+      <c r="C243" s="16"/>
     </row>
     <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="20"/>
-      <c r="C244" s="20"/>
+      <c r="A244" s="16"/>
+      <c r="C244" s="16"/>
     </row>
     <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="20"/>
-      <c r="C245" s="20"/>
+      <c r="A245" s="16"/>
+      <c r="C245" s="16"/>
     </row>
     <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="20"/>
-      <c r="C246" s="20"/>
+      <c r="A246" s="16"/>
+      <c r="C246" s="16"/>
     </row>
     <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="20"/>
-      <c r="C247" s="20"/>
+      <c r="A247" s="16"/>
+      <c r="C247" s="16"/>
     </row>
     <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="20"/>
-      <c r="C248" s="20"/>
+      <c r="A248" s="16"/>
+      <c r="C248" s="16"/>
     </row>
     <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="20"/>
-      <c r="C249" s="20"/>
+      <c r="A249" s="16"/>
+      <c r="C249" s="16"/>
     </row>
     <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="20"/>
-      <c r="C250" s="20"/>
+      <c r="A250" s="16"/>
+      <c r="C250" s="16"/>
     </row>
     <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="20"/>
-      <c r="C251" s="20"/>
+      <c r="A251" s="16"/>
+      <c r="C251" s="16"/>
     </row>
     <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="20"/>
-      <c r="C252" s="20"/>
+      <c r="A252" s="16"/>
+      <c r="C252" s="16"/>
     </row>
     <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="20"/>
-      <c r="C253" s="20"/>
+      <c r="A253" s="16"/>
+      <c r="C253" s="16"/>
     </row>
     <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="20"/>
-      <c r="C254" s="20"/>
+      <c r="A254" s="16"/>
+      <c r="C254" s="16"/>
     </row>
     <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="20"/>
-      <c r="C255" s="20"/>
+      <c r="A255" s="16"/>
+      <c r="C255" s="16"/>
     </row>
     <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="20"/>
-      <c r="C256" s="20"/>
+      <c r="A256" s="16"/>
+      <c r="C256" s="16"/>
     </row>
     <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="20"/>
-      <c r="C257" s="20"/>
+      <c r="A257" s="16"/>
+      <c r="C257" s="16"/>
     </row>
     <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="20"/>
-      <c r="C258" s="20"/>
+      <c r="A258" s="16"/>
+      <c r="C258" s="16"/>
     </row>
     <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="20"/>
-      <c r="C259" s="20"/>
+      <c r="A259" s="16"/>
+      <c r="C259" s="16"/>
     </row>
     <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="20"/>
-      <c r="C260" s="20"/>
+      <c r="A260" s="16"/>
+      <c r="C260" s="16"/>
     </row>
     <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="20"/>
-      <c r="C261" s="20"/>
+      <c r="A261" s="16"/>
+      <c r="C261" s="16"/>
     </row>
     <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="20"/>
-      <c r="C262" s="20"/>
+      <c r="A262" s="16"/>
+      <c r="C262" s="16"/>
     </row>
     <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="20"/>
-      <c r="C263" s="20"/>
+      <c r="A263" s="16"/>
+      <c r="C263" s="16"/>
     </row>
     <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="20"/>
-      <c r="C264" s="20"/>
+      <c r="A264" s="16"/>
+      <c r="C264" s="16"/>
     </row>
     <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="20"/>
-      <c r="C265" s="20"/>
+      <c r="A265" s="16"/>
+      <c r="C265" s="16"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="20"/>
-      <c r="C266" s="20"/>
+      <c r="A266" s="16"/>
+      <c r="C266" s="16"/>
     </row>
     <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="20"/>
-      <c r="C267" s="20"/>
+      <c r="A267" s="16"/>
+      <c r="C267" s="16"/>
     </row>
     <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="20"/>
-      <c r="C268" s="20"/>
+      <c r="A268" s="16"/>
+      <c r="C268" s="16"/>
     </row>
     <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="20"/>
-      <c r="C269" s="20"/>
+      <c r="A269" s="16"/>
+      <c r="C269" s="16"/>
     </row>
     <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="20"/>
-      <c r="C270" s="20"/>
+      <c r="A270" s="16"/>
+      <c r="C270" s="16"/>
     </row>
     <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="20"/>
-      <c r="C271" s="20"/>
+      <c r="A271" s="16"/>
+      <c r="C271" s="16"/>
     </row>
     <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="20"/>
-      <c r="C272" s="20"/>
+      <c r="A272" s="16"/>
+      <c r="C272" s="16"/>
     </row>
     <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="20"/>
-      <c r="C273" s="20"/>
+      <c r="A273" s="16"/>
+      <c r="C273" s="16"/>
     </row>
     <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="20"/>
-      <c r="C274" s="20"/>
+      <c r="A274" s="16"/>
+      <c r="C274" s="16"/>
     </row>
     <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="A275" s="16"/>
+      <c r="C275" s="16"/>
     </row>
     <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="20"/>
-      <c r="C276" s="20"/>
+      <c r="A276" s="16"/>
+      <c r="C276" s="16"/>
     </row>
     <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="20"/>
-      <c r="C277" s="20"/>
+      <c r="A277" s="16"/>
+      <c r="C277" s="16"/>
     </row>
     <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="20"/>
-      <c r="C278" s="20"/>
+      <c r="A278" s="16"/>
+      <c r="C278" s="16"/>
     </row>
     <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="20"/>
-      <c r="C279" s="20"/>
+      <c r="A279" s="16"/>
+      <c r="C279" s="16"/>
     </row>
     <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="20"/>
-      <c r="C280" s="20"/>
+      <c r="A280" s="16"/>
+      <c r="C280" s="16"/>
     </row>
     <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="20"/>
-      <c r="C281" s="20"/>
+      <c r="A281" s="16"/>
+      <c r="C281" s="16"/>
     </row>
     <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="20"/>
-      <c r="C282" s="20"/>
+      <c r="A282" s="16"/>
+      <c r="C282" s="16"/>
     </row>
     <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="20"/>
-      <c r="C283" s="20"/>
+      <c r="A283" s="16"/>
+      <c r="C283" s="16"/>
     </row>
     <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="20"/>
-      <c r="C284" s="20"/>
+      <c r="A284" s="16"/>
+      <c r="C284" s="16"/>
     </row>
     <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="20"/>
-      <c r="C285" s="20"/>
+      <c r="A285" s="16"/>
+      <c r="C285" s="16"/>
     </row>
     <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="20"/>
-      <c r="C286" s="20"/>
+      <c r="A286" s="16"/>
+      <c r="C286" s="16"/>
     </row>
     <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="20"/>
-      <c r="C287" s="20"/>
+      <c r="A287" s="16"/>
+      <c r="C287" s="16"/>
     </row>
     <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="20"/>
-      <c r="C288" s="20"/>
+      <c r="A288" s="16"/>
+      <c r="C288" s="16"/>
     </row>
     <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="20"/>
-      <c r="C289" s="20"/>
+      <c r="A289" s="16"/>
+      <c r="C289" s="16"/>
     </row>
     <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="20"/>
-      <c r="C290" s="20"/>
+      <c r="A290" s="16"/>
+      <c r="C290" s="16"/>
     </row>
     <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="20"/>
-      <c r="C291" s="20"/>
+      <c r="A291" s="16"/>
+      <c r="C291" s="16"/>
     </row>
     <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="20"/>
-      <c r="C292" s="20"/>
+      <c r="A292" s="16"/>
+      <c r="C292" s="16"/>
     </row>
     <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="20"/>
-      <c r="C293" s="20"/>
+      <c r="A293" s="16"/>
+      <c r="C293" s="16"/>
     </row>
     <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="20"/>
-      <c r="C294" s="20"/>
+      <c r="A294" s="16"/>
+      <c r="C294" s="16"/>
     </row>
     <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="20"/>
-      <c r="C295" s="20"/>
+      <c r="A295" s="16"/>
+      <c r="C295" s="16"/>
     </row>
     <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="A296" s="16"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="20"/>
-      <c r="C297" s="20"/>
+      <c r="A297" s="16"/>
+      <c r="C297" s="16"/>
     </row>
     <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="20"/>
-      <c r="C298" s="20"/>
+      <c r="A298" s="16"/>
+      <c r="C298" s="16"/>
     </row>
     <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="20"/>
-      <c r="C299" s="20"/>
+      <c r="A299" s="16"/>
+      <c r="C299" s="16"/>
     </row>
     <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="20"/>
-      <c r="C300" s="20"/>
+      <c r="A300" s="16"/>
+      <c r="C300" s="16"/>
     </row>
     <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="20"/>
-      <c r="C301" s="20"/>
+      <c r="A301" s="16"/>
+      <c r="C301" s="16"/>
     </row>
     <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="20"/>
-      <c r="C302" s="20"/>
+      <c r="A302" s="16"/>
+      <c r="C302" s="16"/>
     </row>
     <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="20"/>
-      <c r="C303" s="20"/>
+      <c r="A303" s="16"/>
+      <c r="C303" s="16"/>
     </row>
     <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="20"/>
-      <c r="C304" s="20"/>
+      <c r="A304" s="16"/>
+      <c r="C304" s="16"/>
     </row>
     <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="20"/>
-      <c r="C305" s="20"/>
+      <c r="A305" s="16"/>
+      <c r="C305" s="16"/>
     </row>
     <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="20"/>
-      <c r="C306" s="20"/>
+      <c r="A306" s="16"/>
+      <c r="C306" s="16"/>
     </row>
     <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="20"/>
-      <c r="C307" s="20"/>
+      <c r="A307" s="16"/>
+      <c r="C307" s="16"/>
     </row>
     <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="20"/>
-      <c r="C308" s="20"/>
+      <c r="A308" s="16"/>
+      <c r="C308" s="16"/>
     </row>
     <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="20"/>
-      <c r="C309" s="20"/>
+      <c r="A309" s="16"/>
+      <c r="C309" s="16"/>
     </row>
     <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="20"/>
-      <c r="C310" s="20"/>
+      <c r="A310" s="16"/>
+      <c r="C310" s="16"/>
     </row>
     <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="20"/>
-      <c r="C311" s="20"/>
+      <c r="A311" s="16"/>
+      <c r="C311" s="16"/>
     </row>
     <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="20"/>
-      <c r="C312" s="20"/>
+      <c r="A312" s="16"/>
+      <c r="C312" s="16"/>
     </row>
     <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="20"/>
-      <c r="C313" s="20"/>
+      <c r="A313" s="16"/>
+      <c r="C313" s="16"/>
     </row>
     <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="20"/>
-      <c r="C314" s="20"/>
+      <c r="A314" s="16"/>
+      <c r="C314" s="16"/>
     </row>
     <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="20"/>
-      <c r="C315" s="20"/>
+      <c r="A315" s="16"/>
+      <c r="C315" s="16"/>
     </row>
     <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="20"/>
-      <c r="C316" s="20"/>
+      <c r="A316" s="16"/>
+      <c r="C316" s="16"/>
     </row>
     <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="20"/>
-      <c r="C317" s="20"/>
+      <c r="A317" s="16"/>
+      <c r="C317" s="16"/>
     </row>
     <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="20"/>
-      <c r="C318" s="20"/>
+      <c r="A318" s="16"/>
+      <c r="C318" s="16"/>
     </row>
     <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="20"/>
-      <c r="C319" s="20"/>
+      <c r="A319" s="16"/>
+      <c r="C319" s="16"/>
     </row>
     <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="20"/>
-      <c r="C320" s="20"/>
+      <c r="A320" s="16"/>
+      <c r="C320" s="16"/>
     </row>
     <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="20"/>
-      <c r="C321" s="20"/>
+      <c r="A321" s="16"/>
+      <c r="C321" s="16"/>
     </row>
     <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="20"/>
-      <c r="C322" s="20"/>
+      <c r="A322" s="16"/>
+      <c r="C322" s="16"/>
     </row>
     <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="20"/>
-      <c r="C323" s="20"/>
+      <c r="A323" s="16"/>
+      <c r="C323" s="16"/>
     </row>
     <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="20"/>
-      <c r="C324" s="20"/>
+      <c r="A324" s="16"/>
+      <c r="C324" s="16"/>
     </row>
     <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="20"/>
-      <c r="C325" s="20"/>
+      <c r="A325" s="16"/>
+      <c r="C325" s="16"/>
     </row>
     <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="20"/>
-      <c r="C326" s="20"/>
+      <c r="A326" s="16"/>
+      <c r="C326" s="16"/>
     </row>
     <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="20"/>
-      <c r="C327" s="20"/>
+      <c r="A327" s="16"/>
+      <c r="C327" s="16"/>
     </row>
     <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="20"/>
-      <c r="C328" s="20"/>
+      <c r="A328" s="16"/>
+      <c r="C328" s="16"/>
     </row>
     <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="20"/>
-      <c r="C329" s="20"/>
+      <c r="A329" s="16"/>
+      <c r="C329" s="16"/>
     </row>
     <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="20"/>
-      <c r="C330" s="20"/>
+      <c r="A330" s="16"/>
+      <c r="C330" s="16"/>
     </row>
     <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="20"/>
-      <c r="C331" s="20"/>
+      <c r="A331" s="16"/>
+      <c r="C331" s="16"/>
     </row>
     <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="20"/>
-      <c r="C332" s="20"/>
+      <c r="A332" s="16"/>
+      <c r="C332" s="16"/>
     </row>
     <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="20"/>
-      <c r="C333" s="20"/>
+      <c r="A333" s="16"/>
+      <c r="C333" s="16"/>
     </row>
     <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="20"/>
-      <c r="C334" s="20"/>
+      <c r="A334" s="16"/>
+      <c r="C334" s="16"/>
     </row>
     <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="20"/>
-      <c r="C335" s="20"/>
+      <c r="A335" s="16"/>
+      <c r="C335" s="16"/>
     </row>
     <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="20"/>
-      <c r="C336" s="20"/>
+      <c r="A336" s="16"/>
+      <c r="C336" s="16"/>
     </row>
     <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="20"/>
-      <c r="C337" s="20"/>
+      <c r="A337" s="16"/>
+      <c r="C337" s="16"/>
     </row>
     <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="20"/>
-      <c r="C338" s="20"/>
+      <c r="A338" s="16"/>
+      <c r="C338" s="16"/>
     </row>
     <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="20"/>
-      <c r="C339" s="20"/>
+      <c r="A339" s="16"/>
+      <c r="C339" s="16"/>
     </row>
     <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="20"/>
-      <c r="C340" s="20"/>
+      <c r="A340" s="16"/>
+      <c r="C340" s="16"/>
     </row>
     <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="20"/>
-      <c r="C341" s="20"/>
+      <c r="A341" s="16"/>
+      <c r="C341" s="16"/>
     </row>
     <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="20"/>
-      <c r="C342" s="20"/>
+      <c r="A342" s="16"/>
+      <c r="C342" s="16"/>
     </row>
     <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="20"/>
-      <c r="C343" s="20"/>
+      <c r="A343" s="16"/>
+      <c r="C343" s="16"/>
     </row>
     <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="20"/>
-      <c r="C344" s="20"/>
+      <c r="A344" s="16"/>
+      <c r="C344" s="16"/>
     </row>
     <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="20"/>
-      <c r="C345" s="20"/>
+      <c r="A345" s="16"/>
+      <c r="C345" s="16"/>
     </row>
     <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="20"/>
-      <c r="C346" s="20"/>
+      <c r="A346" s="16"/>
+      <c r="C346" s="16"/>
     </row>
     <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="20"/>
-      <c r="C347" s="20"/>
+      <c r="A347" s="16"/>
+      <c r="C347" s="16"/>
     </row>
     <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="20"/>
-      <c r="C348" s="20"/>
+      <c r="A348" s="16"/>
+      <c r="C348" s="16"/>
     </row>
     <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="20"/>
-      <c r="C349" s="20"/>
+      <c r="A349" s="16"/>
+      <c r="C349" s="16"/>
     </row>
     <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="20"/>
-      <c r="C350" s="20"/>
+      <c r="A350" s="16"/>
+      <c r="C350" s="16"/>
     </row>
     <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="20"/>
-      <c r="C351" s="20"/>
+      <c r="A351" s="16"/>
+      <c r="C351" s="16"/>
     </row>
     <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="20"/>
-      <c r="C352" s="20"/>
+      <c r="A352" s="16"/>
+      <c r="C352" s="16"/>
     </row>
     <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="20"/>
-      <c r="C353" s="20"/>
+      <c r="A353" s="16"/>
+      <c r="C353" s="16"/>
     </row>
     <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="20"/>
-      <c r="C354" s="20"/>
+      <c r="A354" s="16"/>
+      <c r="C354" s="16"/>
     </row>
     <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="20"/>
-      <c r="C355" s="20"/>
+      <c r="A355" s="16"/>
+      <c r="C355" s="16"/>
     </row>
     <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="20"/>
-      <c r="C356" s="20"/>
+      <c r="A356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="20"/>
-      <c r="C357" s="20"/>
+      <c r="A357" s="16"/>
+      <c r="C357" s="16"/>
     </row>
     <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="20"/>
-      <c r="C358" s="20"/>
+      <c r="A358" s="16"/>
+      <c r="C358" s="16"/>
     </row>
     <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="20"/>
-      <c r="C359" s="20"/>
+      <c r="A359" s="16"/>
+      <c r="C359" s="16"/>
     </row>
     <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="20"/>
-      <c r="C360" s="20"/>
+      <c r="A360" s="16"/>
+      <c r="C360" s="16"/>
     </row>
     <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="20"/>
-      <c r="C361" s="20"/>
+      <c r="A361" s="16"/>
+      <c r="C361" s="16"/>
     </row>
     <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="20"/>
-      <c r="C362" s="20"/>
+      <c r="A362" s="16"/>
+      <c r="C362" s="16"/>
     </row>
     <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="20"/>
-      <c r="C363" s="20"/>
+      <c r="A363" s="16"/>
+      <c r="C363" s="16"/>
     </row>
     <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="20"/>
-      <c r="C364" s="20"/>
+      <c r="A364" s="16"/>
+      <c r="C364" s="16"/>
     </row>
     <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="20"/>
-      <c r="C365" s="20"/>
+      <c r="A365" s="16"/>
+      <c r="C365" s="16"/>
     </row>
     <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="20"/>
-      <c r="C366" s="20"/>
+      <c r="A366" s="16"/>
+      <c r="C366" s="16"/>
     </row>
     <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="20"/>
-      <c r="C367" s="20"/>
+      <c r="A367" s="16"/>
+      <c r="C367" s="16"/>
     </row>
     <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="20"/>
-      <c r="C368" s="20"/>
+      <c r="A368" s="16"/>
+      <c r="C368" s="16"/>
     </row>
     <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="20"/>
-      <c r="C369" s="20"/>
+      <c r="A369" s="16"/>
+      <c r="C369" s="16"/>
     </row>
     <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="20"/>
-      <c r="C370" s="20"/>
+      <c r="A370" s="16"/>
+      <c r="C370" s="16"/>
     </row>
     <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="20"/>
-      <c r="C371" s="20"/>
+      <c r="A371" s="16"/>
+      <c r="C371" s="16"/>
     </row>
     <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="20"/>
-      <c r="C372" s="20"/>
+      <c r="A372" s="16"/>
+      <c r="C372" s="16"/>
     </row>
     <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="20"/>
-      <c r="C373" s="20"/>
+      <c r="A373" s="16"/>
+      <c r="C373" s="16"/>
     </row>
     <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="20"/>
-      <c r="C374" s="20"/>
+      <c r="A374" s="16"/>
+      <c r="C374" s="16"/>
     </row>
     <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="20"/>
-      <c r="C375" s="20"/>
+      <c r="A375" s="16"/>
+      <c r="C375" s="16"/>
     </row>
     <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="20"/>
-      <c r="C376" s="20"/>
+      <c r="A376" s="16"/>
+      <c r="C376" s="16"/>
     </row>
     <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="20"/>
-      <c r="C377" s="20"/>
+      <c r="A377" s="16"/>
+      <c r="C377" s="16"/>
     </row>
     <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="20"/>
-      <c r="C378" s="20"/>
+      <c r="A378" s="16"/>
+      <c r="C378" s="16"/>
     </row>
     <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="20"/>
-      <c r="C379" s="20"/>
+      <c r="A379" s="16"/>
+      <c r="C379" s="16"/>
     </row>
     <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="20"/>
-      <c r="C380" s="20"/>
+      <c r="A380" s="16"/>
+      <c r="C380" s="16"/>
     </row>
     <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="20"/>
-      <c r="C381" s="20"/>
+      <c r="A381" s="16"/>
+      <c r="C381" s="16"/>
     </row>
     <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="20"/>
-      <c r="C382" s="20"/>
+      <c r="A382" s="16"/>
+      <c r="C382" s="16"/>
     </row>
     <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="20"/>
-      <c r="C383" s="20"/>
+      <c r="A383" s="16"/>
+      <c r="C383" s="16"/>
     </row>
     <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="20"/>
-      <c r="C384" s="20"/>
+      <c r="A384" s="16"/>
+      <c r="C384" s="16"/>
     </row>
     <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="20"/>
-      <c r="C385" s="20"/>
+      <c r="A385" s="16"/>
+      <c r="C385" s="16"/>
     </row>
     <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
